--- a/2023_ASSESSMENT/SEPTEMBER_MODELS/summary.xlsx
+++ b/2023_ASSESSMENT/SEPTEMBER_MODELS/summary.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve.barbeaux\Work\September\SEPTEMBER_MODELS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve.barbeaux\Work\GitHub\EBS_PCOD\2023_ASSESSMENT\SEPTEMBER_MODELS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9876" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9876" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="10" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="215">
   <si>
     <t>23.1.0.a</t>
   </si>
@@ -450,9 +450,6 @@
     <t>Survey Age</t>
   </si>
   <si>
-    <t>MACE</t>
-  </si>
-  <si>
     <t>0.11 (0.09)</t>
   </si>
   <si>
@@ -662,22 +659,6 @@
   </si>
   <si>
     <r>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MSY</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>B</t>
     </r>
     <r>
@@ -772,20 +753,50 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>MASE</t>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40</t>
+    </r>
+  </si>
+  <si>
+    <t>Column 1</t>
+  </si>
+  <si>
+    <t>Column 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -860,8 +871,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -904,8 +923,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1073,13 +1104,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1297,6 +1500,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1315,8 +1520,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -8565,16 +8853,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>580562</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>214802</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8591,7 +8879,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7101840" y="175260"/>
+          <a:off x="8755380" y="4297680"/>
           <a:ext cx="2965622" cy="2286000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8679,16 +8967,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>156167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>261969</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>284830</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>113820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8705,8 +8993,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10050780" y="205740"/>
-          <a:ext cx="3965289" cy="2286000"/>
+          <a:off x="14881860" y="4545287"/>
+          <a:ext cx="8491570" cy="4895413"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8945,16 +9233,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>378564</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>401424</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8971,7 +9259,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7101840" y="15681960"/>
+          <a:off x="7924800" y="27546300"/>
           <a:ext cx="3982824" cy="2286000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9393,16 +9681,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>373412</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533432</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9419,7 +9707,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7490460" y="23301960"/>
+          <a:off x="9060180" y="23416260"/>
           <a:ext cx="2979452" cy="2286000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9849,16 +10137,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>406</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>398</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>442420</xdr:colOff>
-      <xdr:row>418</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>290020</xdr:colOff>
+      <xdr:row>410</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9875,7 +10163,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9387840" y="74272140"/>
+          <a:off x="8816340" y="72786240"/>
           <a:ext cx="2979880" cy="2286000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9887,16 +10175,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>393</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>399</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>408438</xdr:colOff>
-      <xdr:row>406</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>164598</xdr:colOff>
+      <xdr:row>411</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9913,7 +10201,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9380220" y="71986140"/>
+          <a:off x="11765280" y="73045320"/>
           <a:ext cx="4172718" cy="2286000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9934,7 +10222,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>520262</xdr:colOff>
       <xdr:row>434</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9972,7 +10260,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>483416</xdr:colOff>
       <xdr:row>434</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10360,7 +10648,7 @@
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11674,7 +11962,7 @@
         <v>59</v>
       </c>
       <c r="D55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E55" s="85">
         <v>0</v>
@@ -11858,7 +12146,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F23"/>
+      <selection activeCell="E12" sqref="A12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11874,22 +12162,22 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C1" s="57"/>
       <c r="D1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="95" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C2" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="43" t="s">
         <v>199</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>200</v>
       </c>
       <c r="E2" s="49" t="s">
         <v>137</v>
@@ -12000,22 +12288,22 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="52">
+      <c r="A8" s="129">
         <v>6.72185E-2</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="129">
         <v>0.77152699999999996</v>
       </c>
-      <c r="C8" s="97">
+      <c r="C8" s="130">
         <v>2287.67</v>
       </c>
-      <c r="D8" s="96">
+      <c r="D8" s="131">
         <v>898.91700000000003</v>
       </c>
-      <c r="E8" s="99">
+      <c r="E8" s="132">
         <v>131.89599999999999</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -12080,22 +12368,22 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="52">
+      <c r="A12" s="129">
         <v>7.5798500000000005E-2</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="129">
         <v>0.71493399999999996</v>
       </c>
-      <c r="C12" s="97">
+      <c r="C12" s="130">
         <v>1866.99</v>
       </c>
-      <c r="D12" s="96">
+      <c r="D12" s="131">
         <v>691.01499999999999</v>
       </c>
-      <c r="E12" s="99">
+      <c r="E12" s="132">
         <v>32.8964</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -12260,14 +12548,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="89">
+      <c r="A21" s="12">
         <v>7.2975799999999993E-2</v>
       </c>
-      <c r="B21" s="89">
+      <c r="B21" s="12">
         <v>0.72128400000000004</v>
       </c>
       <c r="C21" s="98" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D21" s="90">
         <v>1070.8499999999999</v>
@@ -12280,14 +12568,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="89">
+      <c r="A22" s="12">
         <v>6.9853200000000004E-2</v>
       </c>
-      <c r="B22" s="89">
+      <c r="B22" s="12">
         <v>0.829156</v>
       </c>
       <c r="C22" s="98" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D22" s="90">
         <v>945.95899999999995</v>
@@ -12300,14 +12588,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="89">
+      <c r="A23" s="12">
         <v>7.0499900000000004E-2</v>
       </c>
-      <c r="B23" s="89">
+      <c r="B23" s="12">
         <v>0.82746900000000001</v>
       </c>
       <c r="C23" s="98" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D23" s="90">
         <v>974.471</v>
@@ -12398,10 +12686,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V442"/>
+  <dimension ref="A1:AA442"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="D120" workbookViewId="0">
+      <selection activeCell="I169" sqref="I169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12445,7 +12733,7 @@
       <c r="A2" s="36">
         <v>0.42760500000000001</v>
       </c>
-      <c r="B2" s="127">
+      <c r="B2" s="121">
         <v>0.60653069999999998</v>
       </c>
       <c r="C2" s="36">
@@ -12474,7 +12762,7 @@
       <c r="A3">
         <v>0.422043</v>
       </c>
-      <c r="B3" s="128">
+      <c r="B3" s="122">
         <v>0.63762819999999998</v>
       </c>
       <c r="C3">
@@ -12503,7 +12791,7 @@
       <c r="A4">
         <v>0.41621599999999997</v>
       </c>
-      <c r="B4" s="128">
+      <c r="B4" s="122">
         <v>0.67032000000000003</v>
       </c>
       <c r="C4">
@@ -12532,7 +12820,7 @@
       <c r="A5">
         <v>0.41011799999999998</v>
       </c>
-      <c r="B5" s="128">
+      <c r="B5" s="122">
         <v>0.70468810000000004</v>
       </c>
       <c r="C5">
@@ -12561,7 +12849,7 @@
       <c r="A6">
         <v>0.40374100000000002</v>
       </c>
-      <c r="B6" s="128">
+      <c r="B6" s="122">
         <v>0.74081819999999998</v>
       </c>
       <c r="C6">
@@ -12590,7 +12878,7 @@
       <c r="A7">
         <v>0.39708100000000002</v>
       </c>
-      <c r="B7" s="128">
+      <c r="B7" s="122">
         <v>0.77880079999999996</v>
       </c>
       <c r="C7">
@@ -12619,7 +12907,7 @@
       <c r="A8">
         <v>0.39013399999999998</v>
       </c>
-      <c r="B8" s="128">
+      <c r="B8" s="122">
         <v>0.81873079999999998</v>
       </c>
       <c r="C8">
@@ -12648,7 +12936,7 @@
       <c r="A9">
         <v>0.38289499999999999</v>
       </c>
-      <c r="B9" s="128">
+      <c r="B9" s="122">
         <v>0.86070800000000003</v>
       </c>
       <c r="C9">
@@ -14732,7 +15020,7 @@
         <v>135.04499999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0.35708000000000001</v>
       </c>
@@ -14760,8 +15048,15 @@
       <c r="I81">
         <v>135.37700000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K81">
+        <v>-2.84289E-2</v>
+      </c>
+      <c r="L81">
+        <f>EXP(K81)</f>
+        <v>0.97197139885589368</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0.350354</v>
       </c>
@@ -14789,8 +15084,15 @@
       <c r="I82">
         <v>135.75200000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K82">
+        <v>-0.26777400000000001</v>
+      </c>
+      <c r="L82">
+        <f>EXP(K82)</f>
+        <v>0.76508066979707978</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>0.34352899999999997</v>
       </c>
@@ -14819,7 +15121,7 @@
         <v>136.173</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0.33660499999999999</v>
       </c>
@@ -14848,7 +15150,7 @@
         <v>136.64400000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="43">
         <v>0.32958399999999999</v>
       </c>
@@ -14877,7 +15179,7 @@
         <v>137.16900000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>0.46767199999999998</v>
       </c>
@@ -14906,7 +15208,7 @@
         <v>138.715</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0.46196999999999999</v>
       </c>
@@ -14935,7 +15237,7 @@
         <v>138.328</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0.456065</v>
       </c>
@@ -14964,7 +15266,7 @@
         <v>138.00299999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>0.44994400000000001</v>
       </c>
@@ -14993,7 +15295,7 @@
         <v>137.74100000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0.44354500000000002</v>
       </c>
@@ -15022,7 +15324,7 @@
         <v>137.52000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0.43692300000000001</v>
       </c>
@@ -15051,7 +15353,7 @@
         <v>137.38300000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0.43002299999999999</v>
       </c>
@@ -15080,7 +15382,7 @@
         <v>137.316</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0.42284899999999997</v>
       </c>
@@ -15109,7 +15411,7 @@
         <v>137.333</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>0.41538000000000003</v>
       </c>
@@ -15138,7 +15440,7 @@
         <v>137.44300000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>0.40771600000000002</v>
       </c>
@@ -15167,7 +15469,7 @@
         <v>137.65100000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>0.39966800000000002</v>
       </c>
@@ -16117,441 +16419,561 @@
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A128" s="36">
+      <c r="A128" s="138">
         <v>0.46857900000000002</v>
       </c>
-      <c r="B128" s="36">
+      <c r="B128" s="138">
         <v>0.60653069999999998</v>
       </c>
-      <c r="C128" s="36">
+      <c r="C128" s="138">
         <v>1186590</v>
       </c>
-      <c r="D128" s="36">
+      <c r="D128" s="138">
         <v>0.69892299999999996</v>
       </c>
-      <c r="E128" s="36">
+      <c r="E128" s="138">
         <v>423088</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="139">
         <v>313571</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="H128">
+      <c r="H128" s="139">
         <v>-0.5</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="139">
         <v>142.09899999999999</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129">
+      <c r="J128">
+        <f>I128-MIN($I$128:$I$148)</f>
+        <v>1.1119999999999948</v>
+      </c>
+      <c r="K128">
+        <f>E128-$E$133</f>
+        <v>115578</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="139">
         <v>0.46284999999999998</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="139">
         <v>0.63762819999999998</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="139">
         <v>1156780</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="139">
         <v>0.68002899999999999</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="139">
         <v>398220</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="139">
         <v>298556</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="H129">
+      <c r="H129" s="139">
         <v>-0.45</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="139">
         <v>141.94999999999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130">
+      <c r="J129">
+        <f t="shared" ref="J129:J148" si="0">I129-MIN($I$128:$I$148)</f>
+        <v>0.96299999999999386</v>
+      </c>
+      <c r="K129">
+        <f t="shared" ref="K129:K142" si="1">E129-$E$133</f>
+        <v>90710</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="139">
         <v>0.45673900000000001</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="139">
         <v>0.67032000000000003</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="139">
         <v>1141010</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="139">
         <v>0.66403900000000005</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="139">
         <v>373059</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="139">
         <v>283536</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="H130">
+      <c r="H130" s="139">
         <v>-0.4</v>
       </c>
-      <c r="I130">
+      <c r="I130" s="139">
         <v>141.459</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131">
+      <c r="J130">
+        <f t="shared" si="0"/>
+        <v>0.47200000000000841</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="1"/>
+        <v>65549</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="139">
         <v>0.45048100000000002</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="139">
         <v>0.70468810000000004</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="139">
         <v>1122820</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="139">
         <v>0.645123</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="139">
         <v>349905</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="139">
         <v>269474</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="H131">
+      <c r="H131" s="139">
         <v>-0.35</v>
       </c>
-      <c r="I131">
+      <c r="I131" s="139">
         <v>141.21899999999999</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132">
+      <c r="J131">
+        <f t="shared" si="0"/>
+        <v>0.23199999999999932</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="1"/>
+        <v>42395</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="139">
         <v>0.44400400000000001</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="139">
         <v>0.74081819999999998</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="139">
         <v>1105740</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="139">
         <v>0.62744200000000006</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="139">
         <v>328121</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="139">
         <v>256106</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="H132">
+      <c r="H132" s="139">
         <v>-0.3</v>
       </c>
-      <c r="I132">
+      <c r="I132" s="139">
         <v>141.06299999999999</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133">
+      <c r="J132">
+        <f t="shared" si="0"/>
+        <v>7.5999999999993406E-2</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="1"/>
+        <v>20611</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="139">
         <v>0.43728899999999998</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="139">
         <v>0.77880079999999996</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="139">
         <v>1090910</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="139">
         <v>0.60968</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="139">
         <v>307510</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="139">
         <v>243336</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="H133">
+      <c r="H133" s="139">
         <v>-0.25</v>
       </c>
-      <c r="I133">
+      <c r="I133" s="139">
         <v>140.98699999999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134">
+      <c r="J133">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="139">
         <v>0.43032900000000002</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="139">
         <v>0.81873079999999998</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="139">
         <v>1078340</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="139">
         <v>0.591858</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="139">
         <v>288016</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="139">
         <v>231135</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="H134">
+      <c r="H134" s="139">
         <v>-0.2</v>
       </c>
-      <c r="I134">
+      <c r="I134" s="139">
         <v>141.00399999999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135">
+      <c r="J134">
+        <f t="shared" si="0"/>
+        <v>1.6999999999995907E-2</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="1"/>
+        <v>-19494</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="139">
         <v>0.42318499999999998</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="139">
         <v>0.86070800000000003</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="139">
         <v>1058930</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="139">
         <v>0.57824200000000003</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="139">
         <v>270253</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="139">
         <v>219879</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="H135">
+      <c r="H135" s="139">
         <v>-0.15</v>
       </c>
-      <c r="I135">
+      <c r="I135" s="139">
         <v>141.27000000000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136">
+      <c r="J135">
+        <f t="shared" si="0"/>
+        <v>0.28300000000001546</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="1"/>
+        <v>-37257</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="139">
         <v>0.41575099999999998</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="139">
         <v>0.90483740000000001</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="139">
         <v>1047810</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="139">
         <v>0.55849199999999999</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="139">
         <v>253008</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="139">
         <v>208847</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="H136">
+      <c r="H136" s="139">
         <v>-0.1</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="139">
         <v>141.55600000000001</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137">
+      <c r="J136">
+        <f t="shared" si="0"/>
+        <v>0.56900000000001683</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="1"/>
+        <v>-54502</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="139">
         <v>0.40793499999999999</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="139">
         <v>0.9512294</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="139">
         <v>1047180</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="139">
         <v>0.547732</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="139">
         <v>236065</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="139">
         <v>197917</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="H137">
+      <c r="H137" s="139">
         <v>-0.05</v>
       </c>
-      <c r="I137">
+      <c r="I137" s="139">
         <v>141.72499999999999</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138">
+      <c r="J137">
+        <f t="shared" si="0"/>
+        <v>0.73799999999999955</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="1"/>
+        <v>-71445</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="139">
         <v>0.39989799999999998</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="139">
         <v>1</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="139">
         <v>1050290</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="139">
         <v>0.52117400000000003</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="139">
         <v>220202</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="139">
         <v>187520</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="H138">
+      <c r="H138" s="139">
         <v>0</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="139">
         <v>142.24600000000001</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A139">
+      <c r="J138">
+        <f t="shared" si="0"/>
+        <v>1.2590000000000146</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="1"/>
+        <v>-87308</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="139">
         <v>0.39164900000000002</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="139">
         <v>1.0512710999999999</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="139">
         <v>1046410</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="139">
         <v>0.51262099999999999</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="139">
         <v>208031</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="139">
         <v>179501</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="H139">
+      <c r="H139" s="139">
         <v>0.05</v>
       </c>
-      <c r="I139">
+      <c r="I139" s="139">
         <v>142.886</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A140">
+      <c r="J139">
+        <f t="shared" si="0"/>
+        <v>1.8990000000000009</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="1"/>
+        <v>-99479</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="139">
         <v>0.39214199999999999</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="139">
         <v>1.1051709000000001</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="139">
         <v>1087690</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="139">
         <v>0.51028899999999999</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="139">
         <v>228212</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="139">
         <v>193289</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="H140">
+      <c r="H140" s="139">
         <v>0.1</v>
       </c>
-      <c r="I140">
+      <c r="I140" s="139">
         <v>142.05199999999999</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A141">
+      <c r="J140">
+        <f t="shared" si="0"/>
+        <v>1.0649999999999977</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="1"/>
+        <v>-79298</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="139">
         <v>0.385766</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="139">
         <v>1.1618341999999999</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="139">
         <v>1091320</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="139">
         <v>0.49882599999999999</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="139">
         <v>219906</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="139">
         <v>187809</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="H141">
+      <c r="H141" s="139">
         <v>0.15</v>
       </c>
-      <c r="I141">
+      <c r="I141" s="139">
         <v>142.37799999999999</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142">
+      <c r="J141">
+        <f t="shared" si="0"/>
+        <v>1.3909999999999911</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="1"/>
+        <v>-87604</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="139">
         <v>0.37941399999999997</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="139">
         <v>1.2214027999999999</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="139">
         <v>1096920</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="139">
         <v>0.486842</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="139">
         <v>212041</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="139">
         <v>182550</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="H142">
+      <c r="H142" s="139">
         <v>0.2</v>
       </c>
-      <c r="I142">
+      <c r="I142" s="139">
         <v>142.74</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J142">
+        <f t="shared" si="0"/>
+        <v>1.7530000000000143</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="1"/>
+        <v>-95469</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>0.372859</v>
       </c>
@@ -16579,8 +17001,12 @@
       <c r="I143">
         <v>143.24199999999999</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J143">
+        <f t="shared" si="0"/>
+        <v>2.2549999999999955</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>0.36669099999999999</v>
       </c>
@@ -16608,8 +17034,12 @@
       <c r="I144">
         <v>143.60900000000001</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J144">
+        <f t="shared" si="0"/>
+        <v>2.6220000000000141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>0.36027599999999999</v>
       </c>
@@ -16637,8 +17067,12 @@
       <c r="I145">
         <v>144.136</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J145">
+        <f t="shared" si="0"/>
+        <v>3.1490000000000009</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>0.35379899999999997</v>
       </c>
@@ -16666,8 +17100,12 @@
       <c r="I146">
         <v>144.739</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J146">
+        <f t="shared" si="0"/>
+        <v>3.7520000000000095</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>0.34736899999999998</v>
       </c>
@@ -16695,8 +17133,12 @@
       <c r="I147">
         <v>145.4</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J147">
+        <f t="shared" si="0"/>
+        <v>4.4130000000000109</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>0.34100200000000003</v>
       </c>
@@ -16724,8 +17166,12 @@
       <c r="I148">
         <v>146.124</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J148">
+        <f t="shared" si="0"/>
+        <v>5.1370000000000005</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="36">
         <v>0.46973500000000001</v>
       </c>
@@ -16753,8 +17199,12 @@
       <c r="I149" s="36">
         <v>633.52099999999996</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J149">
+        <f>I149-MIN(I$149:$I$169)</f>
+        <v>2.8349999999999227</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>0.46240799999999999</v>
       </c>
@@ -16782,8 +17232,12 @@
       <c r="I150">
         <v>632.70100000000002</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J150">
+        <f>I150-MIN(I$149:$I$169)</f>
+        <v>2.0149999999999864</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>0.45484000000000002</v>
       </c>
@@ -16811,8 +17265,12 @@
       <c r="I151">
         <v>632.005</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J151">
+        <f>I151-MIN(I$149:$I$169)</f>
+        <v>1.31899999999996</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>0.44738099999999997</v>
       </c>
@@ -16840,8 +17298,12 @@
       <c r="I152">
         <v>631.44200000000001</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J152">
+        <f>I152-MIN(I$149:$I$169)</f>
+        <v>0.75599999999997181</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>0.439083</v>
       </c>
@@ -16869,8 +17331,12 @@
       <c r="I153">
         <v>631</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J153">
+        <f>I153-MIN(I$149:$I$169)</f>
+        <v>0.31399999999996453</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>0.4304</v>
       </c>
@@ -16898,8 +17364,12 @@
       <c r="I154">
         <v>630.73900000000003</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J154">
+        <f>I154-MIN(I$149:$I$169)</f>
+        <v>5.2999999999997272E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>0.42134500000000003</v>
       </c>
@@ -16927,8 +17397,12 @@
       <c r="I155" s="4">
         <v>630.68600000000004</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J155">
+        <f>I155-MIN(I$149:$I$169)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>0.41192000000000001</v>
       </c>
@@ -16956,8 +17430,12 @@
       <c r="I156">
         <v>630.87</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J156">
+        <f>I156-MIN(I$149:$I$169)</f>
+        <v>0.18399999999996908</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>0.40212900000000001</v>
       </c>
@@ -16985,8 +17463,12 @@
       <c r="I157">
         <v>631.32299999999998</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J157">
+        <f>I157-MIN(I$149:$I$169)</f>
+        <v>0.63699999999994361</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>0.39198300000000003</v>
       </c>
@@ -17014,8 +17496,12 @@
       <c r="I158">
         <v>632.08000000000004</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J158">
+        <f>I158-MIN(I$149:$I$169)</f>
+        <v>1.3940000000000055</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="37">
         <v>0.38148100000000001</v>
       </c>
@@ -17043,8 +17529,12 @@
       <c r="I159" s="37">
         <v>633.17499999999995</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J159">
+        <f>I159-MIN(I$149:$I$169)</f>
+        <v>2.4889999999999191</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>0.37090400000000001</v>
       </c>
@@ -17072,8 +17562,12 @@
       <c r="I160">
         <v>634.66200000000003</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J160">
+        <f>I160-MIN(I$149:$I$169)</f>
+        <v>3.9759999999999991</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>0.35986699999999999</v>
       </c>
@@ -17101,8 +17595,12 @@
       <c r="I161">
         <v>636.53700000000003</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J161">
+        <f>I161-MIN(I$149:$I$169)</f>
+        <v>5.8509999999999991</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>0.35569099999999998</v>
       </c>
@@ -17130,8 +17628,12 @@
       <c r="I162">
         <v>638.04899999999998</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J162">
+        <f>I162-MIN(I$149:$I$169)</f>
+        <v>7.3629999999999427</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>0.34739199999999998</v>
       </c>
@@ -17159,8 +17661,12 @@
       <c r="I163">
         <v>640.02099999999996</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J163">
+        <f>I163-MIN(I$149:$I$169)</f>
+        <v>9.3349999999999227</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>0.33908100000000002</v>
       </c>
@@ -17188,8 +17694,12 @@
       <c r="I164">
         <v>642.18399999999997</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J164">
+        <f>I164-MIN(I$149:$I$169)</f>
+        <v>11.497999999999934</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>0.330766</v>
       </c>
@@ -17217,8 +17727,12 @@
       <c r="I165">
         <v>644.548</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J165">
+        <f>I165-MIN(I$149:$I$169)</f>
+        <v>13.861999999999966</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>0.32246000000000002</v>
       </c>
@@ -17246,8 +17760,12 @@
       <c r="I166">
         <v>647.12300000000005</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J166">
+        <f>I166-MIN(I$149:$I$169)</f>
+        <v>16.437000000000012</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>0.31417200000000001</v>
       </c>
@@ -17275,8 +17793,12 @@
       <c r="I167">
         <v>649.92100000000005</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J167">
+        <f>I167-MIN(I$149:$I$169)</f>
+        <v>19.235000000000014</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>0.30591600000000002</v>
       </c>
@@ -17304,8 +17826,12 @@
       <c r="I168">
         <v>652.95399999999995</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J168">
+        <f>I168-MIN(I$149:$I$169)</f>
+        <v>22.267999999999915</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="43">
         <v>0.3</v>
       </c>
@@ -17333,8 +17859,12 @@
       <c r="I169" s="43">
         <v>656.26400000000001</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J169">
+        <f>I169-MIN(I$149:$I$169)</f>
+        <v>25.577999999999975</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>0.42520799999999997</v>
       </c>
@@ -17363,7 +17893,7 @@
         <v>247.47200000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>0.41964899999999999</v>
       </c>
@@ -17392,7 +17922,7 @@
         <v>246.012</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>0.41382600000000003</v>
       </c>
@@ -17421,7 +17951,7 @@
         <v>244.56200000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>0.40773100000000001</v>
       </c>
@@ -17450,7 +17980,7 @@
         <v>243.13300000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>0.40135799999999999</v>
       </c>
@@ -17479,7 +18009,7 @@
         <v>241.74199999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>0.39470100000000002</v>
       </c>
@@ -17508,7 +18038,7 @@
         <v>240.40600000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>0.38775599999999999</v>
       </c>
@@ -22226,7 +22756,7 @@
         <v>291336</v>
       </c>
       <c r="G338" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H338">
         <v>-0.5</v>
@@ -22255,7 +22785,7 @@
         <v>277544</v>
       </c>
       <c r="G339" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H339">
         <v>-0.45</v>
@@ -22284,7 +22814,7 @@
         <v>264385</v>
       </c>
       <c r="G340" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H340">
         <v>-0.4</v>
@@ -22313,7 +22843,7 @@
         <v>251823</v>
       </c>
       <c r="G341" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H341">
         <v>-0.35</v>
@@ -22342,7 +22872,7 @@
         <v>239827</v>
       </c>
       <c r="G342" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H342">
         <v>-0.3</v>
@@ -22371,7 +22901,7 @@
         <v>227672</v>
       </c>
       <c r="G343" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H343">
         <v>-0.25</v>
@@ -22400,7 +22930,7 @@
         <v>213688</v>
       </c>
       <c r="G344" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H344">
         <v>-0.2</v>
@@ -22429,7 +22959,7 @@
         <v>229129</v>
       </c>
       <c r="G345" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H345">
         <v>-0.15</v>
@@ -22458,7 +22988,7 @@
         <v>221771</v>
       </c>
       <c r="G346" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H346">
         <v>-0.1</v>
@@ -22487,7 +23017,7 @@
         <v>213906</v>
       </c>
       <c r="G347" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H347">
         <v>-0.05</v>
@@ -22516,7 +23046,7 @@
         <v>206285</v>
       </c>
       <c r="G348" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H348">
         <v>0</v>
@@ -22545,7 +23075,7 @@
         <v>198897</v>
       </c>
       <c r="G349" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H349">
         <v>0.05</v>
@@ -22574,7 +23104,7 @@
         <v>191733</v>
       </c>
       <c r="G350" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H350">
         <v>0.1</v>
@@ -22603,7 +23133,7 @@
         <v>184786</v>
       </c>
       <c r="G351" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H351">
         <v>0.15</v>
@@ -22632,7 +23162,7 @@
         <v>178048</v>
       </c>
       <c r="G352" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H352">
         <v>0.2</v>
@@ -22661,7 +23191,7 @@
         <v>171517</v>
       </c>
       <c r="G353" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H353">
         <v>0.25</v>
@@ -22690,7 +23220,7 @@
         <v>165187</v>
       </c>
       <c r="G354" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H354">
         <v>0.3</v>
@@ -22719,7 +23249,7 @@
         <v>160287</v>
       </c>
       <c r="G355" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H355">
         <v>0.35</v>
@@ -22748,7 +23278,7 @@
         <v>155838</v>
       </c>
       <c r="G356" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H356">
         <v>0.4</v>
@@ -22777,7 +23307,7 @@
         <v>151404</v>
       </c>
       <c r="G357" s="43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H357" s="43">
         <v>0.45</v>
@@ -22806,7 +23336,7 @@
         <v>146987</v>
       </c>
       <c r="G358" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H358">
         <v>0.5</v>
@@ -22835,7 +23365,7 @@
         <v>326545</v>
       </c>
       <c r="G359" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H359">
         <v>-0.5</v>
@@ -22864,7 +23394,7 @@
         <v>311090</v>
       </c>
       <c r="G360" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H360">
         <v>-0.45</v>
@@ -22893,7 +23423,7 @@
         <v>296372</v>
       </c>
       <c r="G361" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H361">
         <v>-0.4</v>
@@ -22922,7 +23452,7 @@
         <v>283287</v>
       </c>
       <c r="G362" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H362" s="82">
         <v>-0.35</v>
@@ -22951,7 +23481,7 @@
         <v>270034</v>
       </c>
       <c r="G363" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H363">
         <v>-0.3</v>
@@ -22980,7 +23510,7 @@
         <v>256250</v>
       </c>
       <c r="G364" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H364">
         <v>-0.25</v>
@@ -23009,7 +23539,7 @@
         <v>244101</v>
       </c>
       <c r="G365" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H365">
         <v>-0.2</v>
@@ -23038,7 +23568,7 @@
         <v>232520</v>
       </c>
       <c r="G366" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H366">
         <v>-0.15</v>
@@ -23067,7 +23597,7 @@
         <v>221483</v>
       </c>
       <c r="G367" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H367">
         <v>-0.1</v>
@@ -23096,7 +23626,7 @@
         <v>210959</v>
       </c>
       <c r="G368" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H368">
         <v>-0.05</v>
@@ -23125,7 +23655,7 @@
         <v>200905</v>
       </c>
       <c r="G369" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H369">
         <v>0</v>
@@ -23154,7 +23684,7 @@
         <v>191285</v>
       </c>
       <c r="G370" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H370">
         <v>0.05</v>
@@ -23183,7 +23713,7 @@
         <v>182058</v>
       </c>
       <c r="G371" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H371">
         <v>0.1</v>
@@ -23212,7 +23742,7 @@
         <v>173183</v>
       </c>
       <c r="G372" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H372">
         <v>0.15</v>
@@ -23241,7 +23771,7 @@
         <v>164630</v>
       </c>
       <c r="G373" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H373">
         <v>0.2</v>
@@ -23270,7 +23800,7 @@
         <v>154241</v>
       </c>
       <c r="G374" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H374">
         <v>0.25</v>
@@ -23299,7 +23829,7 @@
         <v>142300</v>
       </c>
       <c r="G375" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H375">
         <v>0.3</v>
@@ -23328,7 +23858,7 @@
         <v>133262</v>
       </c>
       <c r="G376" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H376">
         <v>0.35</v>
@@ -23357,7 +23887,7 @@
         <v>123976</v>
       </c>
       <c r="G377" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H377">
         <v>0.4</v>
@@ -23386,7 +23916,7 @@
         <v>114417</v>
       </c>
       <c r="G378" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H378">
         <v>0.45</v>
@@ -23415,7 +23945,7 @@
         <v>105164</v>
       </c>
       <c r="G379" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H379">
         <v>0.5</v>
@@ -24081,7 +24611,7 @@
         <v>243473</v>
       </c>
       <c r="G401" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H401">
         <v>-0.5</v>
@@ -24122,7 +24652,7 @@
         <v>231967</v>
       </c>
       <c r="G402" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H402">
         <v>-0.45</v>
@@ -24135,11 +24665,11 @@
         <v>13.800000000001091</v>
       </c>
       <c r="K402">
-        <f t="shared" ref="K402:K421" si="0">E402-$F$411</f>
+        <f t="shared" ref="K402:K421" si="2">E402-$F$411</f>
         <v>130043</v>
       </c>
       <c r="L402" s="84">
-        <f t="shared" ref="L402:L421" si="1">J402/$I$411</f>
+        <f t="shared" ref="L402:L421" si="3">J402/$I$411</f>
         <v>1.2689305122618312E-3</v>
       </c>
     </row>
@@ -24163,7 +24693,7 @@
         <v>220867</v>
       </c>
       <c r="G403" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H403">
         <v>-0.4</v>
@@ -24176,11 +24706,11 @@
         <v>10.900000000001455</v>
       </c>
       <c r="K403">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>114710</v>
       </c>
       <c r="L403" s="84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0022712017141095E-3</v>
       </c>
     </row>
@@ -24204,7 +24734,7 @@
         <v>210231</v>
       </c>
       <c r="G404" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H404">
         <v>-0.35</v>
@@ -24217,11 +24747,11 @@
         <v>8.7000000000007276</v>
       </c>
       <c r="K404">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>99956</v>
       </c>
       <c r="L404" s="84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.9997793164333193E-4</v>
       </c>
     </row>
@@ -24245,7 +24775,7 @@
         <v>199983</v>
       </c>
       <c r="G405" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H405">
         <v>-0.3</v>
@@ -24258,11 +24788,11 @@
         <v>7.7000000000007276</v>
       </c>
       <c r="K405">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>85743</v>
       </c>
       <c r="L405" s="84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.0802644524755438E-4</v>
       </c>
     </row>
@@ -24286,7 +24816,7 @@
         <v>190460</v>
       </c>
       <c r="G406" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H406">
         <v>-0.25</v>
@@ -24299,11 +24829,11 @@
         <v>4.2000000000007276</v>
       </c>
       <c r="K406">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>72808</v>
       </c>
       <c r="L406" s="84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.8619624286233278E-4</v>
       </c>
     </row>
@@ -24327,7 +24857,7 @@
         <v>181953</v>
       </c>
       <c r="G407" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H407">
         <v>-0.2</v>
@@ -24340,11 +24870,11 @@
         <v>3.4000000000014552</v>
       </c>
       <c r="K407">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>61531</v>
       </c>
       <c r="L407" s="84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.1263505374577765E-4</v>
       </c>
     </row>
@@ -24368,7 +24898,7 @@
         <v>167867</v>
       </c>
       <c r="G408" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H408">
         <v>-0.15</v>
@@ -24381,11 +24911,11 @@
         <v>1.1000000000003638</v>
       </c>
       <c r="K408">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>48260</v>
       </c>
       <c r="L408" s="84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.011466350353888E-4</v>
       </c>
     </row>
@@ -24409,7 +24939,7 @@
         <v>155598</v>
       </c>
       <c r="G409" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H409">
         <v>-0.1</v>
@@ -24422,11 +24952,11 @@
         <v>0.2000000000007276</v>
       </c>
       <c r="K409">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>36462</v>
       </c>
       <c r="L409" s="84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8390297279222423E-5</v>
       </c>
     </row>
@@ -24450,7 +24980,7 @@
         <v>146301</v>
       </c>
       <c r="G410" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H410">
         <v>-0.05</v>
@@ -24463,11 +24993,11 @@
         <v>0</v>
       </c>
       <c r="K410">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18537</v>
       </c>
       <c r="L410" s="84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M410">
@@ -24495,7 +25025,7 @@
         <v>137214</v>
       </c>
       <c r="G411" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H411" s="37">
         <v>0</v>
@@ -24508,11 +25038,11 @@
         <v>0</v>
       </c>
       <c r="K411">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2182</v>
       </c>
       <c r="L411" s="84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -24536,7 +25066,7 @@
         <v>128133</v>
       </c>
       <c r="G412" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H412">
         <v>0.05</v>
@@ -24549,11 +25079,11 @@
         <v>0.90000000000145519</v>
       </c>
       <c r="K412">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-13055</v>
       </c>
       <c r="L412" s="84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.2756337756333635E-5</v>
       </c>
     </row>
@@ -24577,7 +25107,7 @@
         <v>119010</v>
       </c>
       <c r="G413" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H413">
         <v>0.1</v>
@@ -24590,11 +25120,11 @@
         <v>2.8000000000010914</v>
       </c>
       <c r="K413">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-27364</v>
       </c>
       <c r="L413" s="84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.5746416190827764E-4</v>
       </c>
     </row>
@@ -24618,7 +25148,7 @@
         <v>109750</v>
       </c>
       <c r="G414" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H414">
         <v>0.15</v>
@@ -24631,11 +25161,11 @@
         <v>6.3000000000010914</v>
       </c>
       <c r="K414">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-40891.199999999997</v>
       </c>
       <c r="L414" s="84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.7929436429349918E-4</v>
       </c>
     </row>
@@ -24659,7 +25189,7 @@
         <v>100832</v>
       </c>
       <c r="G415" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H415">
         <v>0.2</v>
@@ -24672,11 +25202,11 @@
         <v>9.8000000000010914</v>
       </c>
       <c r="K415">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-52957.399999999994</v>
       </c>
       <c r="L415" s="84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.0112456667872077E-4</v>
       </c>
     </row>
@@ -24700,7 +25230,7 @@
         <v>92519.7</v>
       </c>
       <c r="G416" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H416">
         <v>0.25</v>
@@ -24713,15 +25243,15 @@
         <v>13.5</v>
       </c>
       <c r="K416">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-63353.2</v>
       </c>
       <c r="L416" s="84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2413450663429975E-3</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>0.28427999999999998</v>
       </c>
@@ -24741,7 +25271,7 @@
         <v>83996.4</v>
       </c>
       <c r="G417" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H417">
         <v>0.3</v>
@@ -24754,15 +25284,15 @@
         <v>19.300000000001091</v>
       </c>
       <c r="K417">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-73350.2</v>
       </c>
       <c r="L417" s="84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.7746636874386079E-3</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>0.27397500000000002</v>
       </c>
@@ -24782,7 +25312,7 @@
         <v>75679.899999999994</v>
       </c>
       <c r="G418" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H418">
         <v>0.35</v>
@@ -24795,15 +25325,15 @@
         <v>26.5</v>
       </c>
       <c r="K418">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-82420.399999999994</v>
       </c>
       <c r="L418" s="84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.4367143894881062E-3</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>0.26339699999999999</v>
       </c>
@@ -24823,7 +25353,7 @@
         <v>67700.800000000003</v>
       </c>
       <c r="G419" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H419">
         <v>0.4</v>
@@ -24836,15 +25366,15 @@
         <v>35.200000000000728</v>
       </c>
       <c r="K419">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-90508.5</v>
       </c>
       <c r="L419" s="84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.2366923211314381E-3</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>0.25117899999999999</v>
       </c>
@@ -24864,7 +25394,7 @@
         <v>59398.400000000001</v>
       </c>
       <c r="G420" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H420">
         <v>0.45</v>
@@ -24877,15 +25407,15 @@
         <v>43.300000000001091</v>
       </c>
       <c r="K420">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-98349.2</v>
       </c>
       <c r="L420" s="84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.98149936093727E-3</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A421" s="43">
         <v>0.23949400000000001</v>
       </c>
@@ -24905,7 +25435,7 @@
         <v>51935.7</v>
       </c>
       <c r="G421" s="43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H421" s="43">
         <v>0.5</v>
@@ -24918,15 +25448,15 @@
         <v>53.800000000001091</v>
       </c>
       <c r="K421">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-104882.9</v>
       </c>
       <c r="L421" s="84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.9469899680929345E-3</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>0.38703799999999999</v>
       </c>
@@ -24946,7 +25476,7 @@
         <v>233327</v>
       </c>
       <c r="G422" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H422">
         <v>-0.5</v>
@@ -24955,11 +25485,11 @@
         <v>18422.900000000001</v>
       </c>
       <c r="J422">
-        <f t="shared" ref="J422:J442" si="2">C422/2</f>
+        <f t="shared" ref="J422:J442" si="4">C422/2</f>
         <v>721175</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>0.38150099999999998</v>
       </c>
@@ -24979,7 +25509,7 @@
         <v>222109</v>
       </c>
       <c r="G423" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H423">
         <v>-0.45</v>
@@ -24988,11 +25518,18 @@
         <v>18416.2</v>
       </c>
       <c r="J423">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>710870</v>
       </c>
-    </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Y423" s="137"/>
+      <c r="Z423" s="137" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA423" s="137" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="424" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>0.37455500000000003</v>
       </c>
@@ -25012,7 +25549,7 @@
         <v>213090</v>
       </c>
       <c r="G424" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H424">
         <v>-0.4</v>
@@ -25021,11 +25558,18 @@
         <v>18436.8</v>
       </c>
       <c r="J424">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>705800</v>
       </c>
-    </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Y424" s="135" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z424" s="135">
+        <v>1</v>
+      </c>
+      <c r="AA424" s="135"/>
+    </row>
+    <row r="425" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>0.36907200000000001</v>
       </c>
@@ -25045,7 +25589,7 @@
         <v>202348</v>
       </c>
       <c r="G425" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H425">
         <v>-0.35</v>
@@ -25054,11 +25598,20 @@
         <v>18428</v>
       </c>
       <c r="J425">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>695605</v>
       </c>
-    </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Y425" s="136" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z425" s="136">
+        <v>-0.99920136894527023</v>
+      </c>
+      <c r="AA425" s="136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>0.362896</v>
       </c>
@@ -25078,7 +25631,7 @@
         <v>192820</v>
       </c>
       <c r="G426" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H426">
         <v>-0.3</v>
@@ -25091,7 +25644,7 @@
         <v>690235</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>0.35843799999999998</v>
       </c>
@@ -25111,7 +25664,7 @@
         <v>184339</v>
       </c>
       <c r="G427" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H427">
         <v>-0.25</v>
@@ -25120,11 +25673,11 @@
         <v>18421.099999999999</v>
       </c>
       <c r="J427">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>687200</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>0.35508000000000001</v>
       </c>
@@ -25144,7 +25697,7 @@
         <v>179781</v>
       </c>
       <c r="G428" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H428">
         <v>-0.2</v>
@@ -25153,11 +25706,11 @@
         <v>18395.8</v>
       </c>
       <c r="J428">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>686660</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>0.34314899999999998</v>
       </c>
@@ -25177,7 +25730,7 @@
         <v>161963</v>
       </c>
       <c r="G429" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H429">
         <v>-0.15</v>
@@ -25186,11 +25739,11 @@
         <v>18386.3</v>
       </c>
       <c r="J429">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>686650</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A430" s="37">
         <v>0.33930500000000002</v>
       </c>
@@ -25210,7 +25763,7 @@
         <v>155643</v>
       </c>
       <c r="G430" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H430" s="37">
         <v>-0.1</v>
@@ -25219,11 +25772,11 @@
         <v>18363.3</v>
       </c>
       <c r="J430">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>686880</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>0.32940700000000001</v>
       </c>
@@ -25243,7 +25796,7 @@
         <v>139004</v>
       </c>
       <c r="G431" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H431">
         <v>-0.05</v>
@@ -25252,11 +25805,11 @@
         <v>18369.5</v>
       </c>
       <c r="J431">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>689040</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>0.32327400000000001</v>
       </c>
@@ -25276,7 +25829,7 @@
         <v>130620</v>
       </c>
       <c r="G432" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H432">
         <v>0</v>
@@ -25285,7 +25838,7 @@
         <v>18371.599999999999</v>
       </c>
       <c r="J432">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>695900</v>
       </c>
     </row>
@@ -25309,7 +25862,7 @@
         <v>121292</v>
       </c>
       <c r="G433" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H433">
         <v>0.05</v>
@@ -25318,7 +25871,7 @@
         <v>18369.2</v>
       </c>
       <c r="J433">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>703190</v>
       </c>
     </row>
@@ -25342,7 +25895,7 @@
         <v>111728</v>
       </c>
       <c r="G434" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H434">
         <v>0.1</v>
@@ -25351,7 +25904,7 @@
         <v>18378.599999999999</v>
       </c>
       <c r="J434">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>716200</v>
       </c>
     </row>
@@ -25375,7 +25928,7 @@
         <v>102230</v>
       </c>
       <c r="G435" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H435">
         <v>0.15</v>
@@ -25384,7 +25937,7 @@
         <v>18375.7</v>
       </c>
       <c r="J435">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>734860</v>
       </c>
     </row>
@@ -25408,7 +25961,7 @@
         <v>93746.6</v>
       </c>
       <c r="G436" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H436">
         <v>0.2</v>
@@ -25417,7 +25970,7 @@
         <v>18378.099999999999</v>
       </c>
       <c r="J436">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>760165</v>
       </c>
     </row>
@@ -25441,7 +25994,7 @@
         <v>86499.6</v>
       </c>
       <c r="G437" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H437">
         <v>0.25</v>
@@ -25450,7 +26003,7 @@
         <v>18380.900000000001</v>
       </c>
       <c r="J437">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>781845</v>
       </c>
     </row>
@@ -25474,7 +26027,7 @@
         <v>76732.399999999994</v>
       </c>
       <c r="G438" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H438">
         <v>0.3</v>
@@ -25483,7 +26036,7 @@
         <v>18392.3</v>
       </c>
       <c r="J438">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>823400</v>
       </c>
     </row>
@@ -25507,7 +26060,7 @@
         <v>69103.399999999994</v>
       </c>
       <c r="G439" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H439">
         <v>0.35</v>
@@ -25516,7 +26069,7 @@
         <v>18397.400000000001</v>
       </c>
       <c r="J439">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>844445</v>
       </c>
     </row>
@@ -25540,7 +26093,7 @@
         <v>61266.8</v>
       </c>
       <c r="G440" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H440">
         <v>0.4</v>
@@ -25549,7 +26102,7 @@
         <v>18406.099999999999</v>
       </c>
       <c r="J440">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>888745</v>
       </c>
     </row>
@@ -25573,7 +26126,7 @@
         <v>53734.9</v>
       </c>
       <c r="G441" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H441">
         <v>0.45</v>
@@ -25582,7 +26135,7 @@
         <v>18415.7</v>
       </c>
       <c r="J441">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>946240</v>
       </c>
     </row>
@@ -25606,7 +26159,7 @@
         <v>46606.6</v>
       </c>
       <c r="G442" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H442">
         <v>0.5</v>
@@ -25615,7 +26168,7 @@
         <v>18428.7</v>
       </c>
       <c r="J442">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1009605</v>
       </c>
     </row>
@@ -25627,15 +26180,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -25649,7 +26202,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -25664,7 +26217,7 @@
         <v>666.06</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -25679,7 +26232,7 @@
         <v>638.46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -25694,7 +26247,7 @@
         <v>912.44</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -25708,8 +26261,16 @@
         <f t="shared" si="0"/>
         <v>702.07999999999993</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <f>B5-B3</f>
+        <v>42</v>
+      </c>
+      <c r="H5">
+        <f>C3-C5</f>
+        <v>10.189999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -25723,8 +26284,23 @@
         <f t="shared" si="0"/>
         <v>694.62</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="L6" s="154">
+        <v>663556</v>
+      </c>
+      <c r="M6" s="155">
+        <v>249862</v>
+      </c>
+      <c r="N6" s="156">
+        <v>0.377</v>
+      </c>
+      <c r="O6" s="155">
+        <v>144781</v>
+      </c>
+      <c r="P6" s="150">
+        <v>192152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -25738,8 +26314,23 @@
         <f t="shared" si="0"/>
         <v>703.46</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="L7" s="157">
+        <v>686923</v>
+      </c>
+      <c r="M7" s="158">
+        <v>279187</v>
+      </c>
+      <c r="N7" s="159">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="O7" s="158">
+        <v>155540</v>
+      </c>
+      <c r="P7" s="151">
+        <v>204657</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -25753,8 +26344,27 @@
         <f t="shared" si="0"/>
         <v>709.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <f>C8-C5</f>
+        <v>4.9099999999999966</v>
+      </c>
+      <c r="L8" s="160">
+        <v>587786</v>
+      </c>
+      <c r="M8" s="161">
+        <v>209209</v>
+      </c>
+      <c r="N8" s="162">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="O8" s="161">
+        <v>134930</v>
+      </c>
+      <c r="P8" s="152">
+        <v>178060</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -25768,8 +26378,23 @@
         <f t="shared" si="0"/>
         <v>1695.36</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="L9" s="160">
+        <v>610263</v>
+      </c>
+      <c r="M9" s="161">
+        <v>314592</v>
+      </c>
+      <c r="N9" s="162">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="O9" s="161">
+        <v>218929</v>
+      </c>
+      <c r="P9" s="152">
+        <v>187374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -25783,8 +26408,23 @@
         <f t="shared" si="0"/>
         <v>1075.28</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="L10" s="160">
+        <v>620013</v>
+      </c>
+      <c r="M10" s="161">
+        <v>333797</v>
+      </c>
+      <c r="N10" s="162">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="O10" s="161">
+        <v>236289</v>
+      </c>
+      <c r="P10" s="152">
+        <v>188263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -25798,8 +26438,23 @@
         <f t="shared" si="0"/>
         <v>1053.04</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="L11" s="160">
+        <v>547403</v>
+      </c>
+      <c r="M11" s="161">
+        <v>330233</v>
+      </c>
+      <c r="N11" s="162">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="O11" s="161">
+        <v>236739</v>
+      </c>
+      <c r="P11" s="152">
+        <v>181473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -25813,8 +26468,21 @@
         <f t="shared" si="0"/>
         <v>1019.48</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="L12" s="163">
+        <v>616616</v>
+      </c>
+      <c r="M12" s="164">
+        <v>318377</v>
+      </c>
+      <c r="N12" s="165">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="O12" s="165"/>
+      <c r="P12" s="153" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
@@ -25829,7 +26497,7 @@
         <v>633.78</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
@@ -25844,7 +26512,7 @@
         <v>739.83999999999992</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
@@ -25859,7 +26527,7 @@
         <v>992.48</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
@@ -25874,7 +26542,7 @@
         <v>755.18000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
@@ -25889,7 +26557,7 @@
         <v>740.68000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -25903,8 +26571,11 @@
         <f t="shared" si="0"/>
         <v>759.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="L18" s="166">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
@@ -25918,8 +26589,11 @@
         <f t="shared" si="0"/>
         <v>762.36</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="L19" s="167">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
@@ -25933,14 +26607,20 @@
         <f t="shared" si="0"/>
         <v>1726.28</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="L20" s="168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="L21" s="168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>304</v>
       </c>
@@ -25951,8 +26631,11 @@
         <f t="shared" si="0"/>
         <v>22358</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="L22" s="168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>306</v>
       </c>
@@ -25963,8 +26646,16 @@
         <f t="shared" si="0"/>
         <v>37336</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="L23" s="168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L24" s="169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
@@ -25978,8 +26669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25993,16 +26684,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="48"/>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="123" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="124" t="s">
+      <c r="C1" s="124"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="126" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="49"/>
@@ -26512,7 +27203,7 @@
       <c r="B26" s="79"/>
       <c r="C26" s="57"/>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="E26" s="48"/>
     </row>
@@ -26525,7 +27216,7 @@
         <v>96</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E27" s="49" t="s">
         <v>137</v>
@@ -26536,13 +27227,13 @@
         <v>35</v>
       </c>
       <c r="B28" s="71" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C28" s="51">
         <v>0.69</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E28" s="53">
         <v>0.35</v>
@@ -26553,13 +27244,13 @@
         <v>36</v>
       </c>
       <c r="B29" s="72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C29" s="54">
         <v>0.69</v>
       </c>
       <c r="D29" s="63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E29" s="56">
         <v>0.35</v>
@@ -26570,13 +27261,13 @@
         <v>37</v>
       </c>
       <c r="B30" s="73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C30" s="61">
         <v>0.42</v>
       </c>
       <c r="D30" s="73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E30" s="77">
         <v>0.32</v>
@@ -26587,13 +27278,13 @@
         <v>38</v>
       </c>
       <c r="B31" s="73" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C31" s="61">
         <v>0.4</v>
       </c>
       <c r="D31" s="73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E31" s="77">
         <v>0.38</v>
@@ -26604,13 +27295,13 @@
         <v>39</v>
       </c>
       <c r="B32" s="73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C32" s="61">
         <v>0.4</v>
       </c>
       <c r="D32" s="73" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E32" s="77">
         <v>0.38</v>
@@ -26621,13 +27312,13 @@
         <v>40</v>
       </c>
       <c r="B33" s="73" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C33" s="61">
         <v>0.4</v>
       </c>
       <c r="D33" s="73" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E33" s="77">
         <v>0.38</v>
@@ -26638,13 +27329,13 @@
         <v>41</v>
       </c>
       <c r="B34" s="73" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C34" s="61">
         <v>0.4</v>
       </c>
       <c r="D34" s="73" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E34" s="77">
         <v>0.43</v>
@@ -26655,13 +27346,13 @@
         <v>42</v>
       </c>
       <c r="B35" s="73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C35" s="61">
         <v>0.4</v>
       </c>
       <c r="D35" s="73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E35" s="77">
         <v>0.38</v>
@@ -26672,13 +27363,13 @@
         <v>43</v>
       </c>
       <c r="B36" s="73" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C36" s="61">
         <v>0.39</v>
       </c>
       <c r="D36" s="73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E36" s="77">
         <v>0.41</v>
@@ -26689,13 +27380,13 @@
         <v>44</v>
       </c>
       <c r="B37" s="74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C37" s="75">
         <v>0.4</v>
       </c>
       <c r="D37" s="76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E37" s="78">
         <v>0.41</v>
@@ -26706,13 +27397,13 @@
         <v>46</v>
       </c>
       <c r="B38" s="70" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C38" s="61">
         <v>0.41</v>
       </c>
       <c r="D38" s="64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E38" s="77">
         <v>0.33</v>
@@ -26723,13 +27414,13 @@
         <v>47</v>
       </c>
       <c r="B39" s="70" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C39" s="61">
         <v>0.4</v>
       </c>
       <c r="D39" s="64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E39" s="77">
         <v>0.35</v>
@@ -26740,13 +27431,13 @@
         <v>48</v>
       </c>
       <c r="B40" s="70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C40" s="61">
         <v>0.41</v>
       </c>
       <c r="D40" s="64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E40" s="77">
         <v>0.35</v>
@@ -26757,13 +27448,13 @@
         <v>49</v>
       </c>
       <c r="B41" s="70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C41" s="61">
         <v>0.4</v>
       </c>
       <c r="D41" s="64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E41" s="77">
         <v>0.37</v>
@@ -26774,13 +27465,13 @@
         <v>50</v>
       </c>
       <c r="B42" s="70" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C42" s="61">
         <v>0.41</v>
       </c>
       <c r="D42" s="64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E42" s="77">
         <v>0.39</v>
@@ -26791,13 +27482,13 @@
         <v>51</v>
       </c>
       <c r="B43" s="70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C43" s="61">
         <v>0.4</v>
       </c>
       <c r="D43" s="64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E43" s="77">
         <v>0.36</v>
@@ -26808,13 +27499,13 @@
         <v>52</v>
       </c>
       <c r="B44" s="70" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C44" s="61">
         <v>0.4</v>
       </c>
       <c r="D44" s="64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E44" s="77">
         <v>0.39</v>
@@ -26825,13 +27516,13 @@
         <v>53</v>
       </c>
       <c r="B45" s="66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C45" s="54">
         <v>0.41</v>
       </c>
       <c r="D45" s="63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E45" s="56">
         <v>0.4</v>
@@ -26841,11 +27532,11 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B46" s="60"/>
       <c r="C46" s="58"/>
-      <c r="D46" s="125" t="s">
-        <v>160</v>
-      </c>
-      <c r="E46" s="126"/>
-      <c r="F46" s="123"/>
+      <c r="D46" s="127" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="128"/>
+      <c r="F46" s="125"/>
       <c r="G46" s="57"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -26853,13 +27544,13 @@
       <c r="B47" s="59"/>
       <c r="C47" s="50"/>
       <c r="D47" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="E47" s="43" t="s">
+      <c r="F47" s="43" t="s">
         <v>148</v>
-      </c>
-      <c r="F47" s="43" t="s">
-        <v>149</v>
       </c>
       <c r="G47" s="50" t="s">
         <v>137</v>
@@ -26870,19 +27561,19 @@
         <v>45</v>
       </c>
       <c r="B48" s="67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C48" s="52">
         <v>0.41</v>
       </c>
       <c r="D48" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="E48" s="62" t="s">
+      <c r="F48" s="62" t="s">
         <v>145</v>
-      </c>
-      <c r="F48" s="62" t="s">
-        <v>146</v>
       </c>
       <c r="G48" s="57">
         <v>0.39</v>
@@ -26893,19 +27584,19 @@
         <v>9</v>
       </c>
       <c r="B49" s="68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="52">
         <v>0.4</v>
       </c>
       <c r="D49" s="65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E49" s="62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F49" s="62" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G49" s="57">
         <v>0.37</v>
@@ -26916,19 +27607,19 @@
         <v>10</v>
       </c>
       <c r="B50" s="69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C50" s="55">
         <v>0.39</v>
       </c>
       <c r="D50" s="66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E50" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="F50" s="63" t="s">
         <v>152</v>
-      </c>
-      <c r="F50" s="63" t="s">
-        <v>153</v>
       </c>
       <c r="G50" s="50">
         <v>0.37</v>
@@ -26949,7 +27640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -27069,8 +27760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29179,10 +29870,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="A5:D5"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E66" sqref="A66:E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29194,7 +29885,7 @@
     <col min="5" max="5" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>85</v>
       </c>
@@ -29211,7 +29902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>89</v>
       </c>
@@ -29228,7 +29919,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>89</v>
       </c>
@@ -29245,7 +29936,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>89</v>
       </c>
@@ -29262,7 +29953,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>89</v>
       </c>
@@ -29278,8 +29969,12 @@
       <c r="E5" s="14" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="12">
+        <f>B8-B5</f>
+        <v>3.4630000000000081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>89</v>
       </c>
@@ -29295,8 +29990,16 @@
       <c r="E6" s="14" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="12">
+        <f>B65-B62</f>
+        <v>2.605000000000004</v>
+      </c>
+      <c r="H6" s="12">
+        <f>SUM(G5:G6)</f>
+        <v>6.0680000000000121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>89</v>
       </c>
@@ -29312,8 +30015,12 @@
       <c r="E7" s="14" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="12">
+        <f>B84-B81</f>
+        <v>-1.1200000000000045</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>89</v>
       </c>
@@ -29330,7 +30037,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>89</v>
       </c>
@@ -29347,7 +30054,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>89</v>
       </c>
@@ -29364,7 +30071,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>89</v>
       </c>
@@ -29381,7 +30088,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>89</v>
       </c>
@@ -29398,7 +30105,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>89</v>
       </c>
@@ -29415,7 +30122,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>89</v>
       </c>
@@ -29432,7 +30139,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>89</v>
       </c>
@@ -29449,7 +30156,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>89</v>
       </c>
@@ -30012,7 +30719,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
         <v>91</v>
       </c>
@@ -30029,7 +30736,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
         <v>91</v>
       </c>
@@ -30046,7 +30753,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
         <v>91</v>
       </c>
@@ -30063,7 +30770,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
         <v>91</v>
       </c>
@@ -30080,7 +30787,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
         <v>91</v>
       </c>
@@ -30097,7 +30804,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
         <v>91</v>
       </c>
@@ -30114,7 +30821,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
         <v>91</v>
       </c>
@@ -30131,7 +30838,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
         <v>91</v>
       </c>
@@ -30148,7 +30855,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
         <v>91</v>
       </c>
@@ -30165,7 +30872,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
         <v>91</v>
       </c>
@@ -30182,7 +30889,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26" t="s">
         <v>92</v>
       </c>
@@ -30199,7 +30906,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
         <v>92</v>
       </c>
@@ -30216,7 +30923,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="16" t="s">
         <v>92</v>
       </c>
@@ -30233,7 +30940,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="16" t="s">
         <v>92</v>
       </c>
@@ -30249,8 +30956,12 @@
       <c r="E62" s="16" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G62" s="12">
+        <f>B62-B60</f>
+        <v>-10.171000000000006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
         <v>92</v>
       </c>
@@ -30267,7 +30978,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
         <v>92</v>
       </c>
@@ -30564,7 +31275,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="16" t="s">
         <v>93</v>
       </c>
@@ -30581,7 +31292,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="16" t="s">
         <v>93</v>
       </c>
@@ -30597,8 +31308,12 @@
       <c r="E82" s="16" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G82" s="12">
+        <f>B81-B79</f>
+        <v>-5.4899999999999949</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="16" t="s">
         <v>93</v>
       </c>
@@ -30615,7 +31330,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="16" t="s">
         <v>93</v>
       </c>
@@ -30632,7 +31347,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="16" t="s">
         <v>93</v>
       </c>
@@ -30649,7 +31364,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="16" t="s">
         <v>93</v>
       </c>
@@ -30666,7 +31381,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="16" t="s">
         <v>93</v>
       </c>
@@ -30683,7 +31398,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="16" t="s">
         <v>93</v>
       </c>
@@ -30700,7 +31415,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="16" t="s">
         <v>93</v>
       </c>
@@ -30717,7 +31432,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="16" t="s">
         <v>93</v>
       </c>
@@ -30734,7 +31449,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="16" t="s">
         <v>93</v>
       </c>
@@ -30751,7 +31466,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="16" t="s">
         <v>93</v>
       </c>
@@ -30768,7 +31483,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="16" t="s">
         <v>93</v>
       </c>
@@ -30785,7 +31500,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="16" t="s">
         <v>93</v>
       </c>
@@ -30802,7 +31517,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="16" t="s">
         <v>93</v>
       </c>
@@ -30819,7 +31534,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="16" t="s">
         <v>93</v>
       </c>
@@ -31149,10 +31864,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:T22"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31165,9 +31880,10 @@
     <col min="8" max="8" width="11.44140625" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" customWidth="1"/>
     <col min="10" max="10" width="21.109375" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>106</v>
       </c>
@@ -31190,23 +31906,23 @@
         <v>109</v>
       </c>
       <c r="H1" s="43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="44">
         <v>0.346715</v>
       </c>
       <c r="B2" s="44">
         <v>0.9597793</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="146">
         <v>0.66145500000000002</v>
       </c>
       <c r="D2" s="44">
@@ -31230,15 +31946,29 @@
       <c r="J2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="89">
+        <f>1322910/2000</f>
+        <v>661.45500000000004</v>
+      </c>
+      <c r="L2" s="89">
+        <f>499618/2000</f>
+        <v>249.809</v>
+      </c>
+      <c r="M2" s="44">
+        <f>L2/K2</f>
+        <v>0.37766590319825233</v>
+      </c>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="94">
         <v>0.32800000000000001</v>
       </c>
       <c r="B3" s="94">
         <v>0.97399999999999998</v>
       </c>
-      <c r="C3" s="94">
+      <c r="C3" s="147">
         <v>0.69499999999999995</v>
       </c>
       <c r="D3" s="93">
@@ -31262,15 +31992,27 @@
       <c r="J3" s="43" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="89">
+        <f>1389490/2000</f>
+        <v>694.745</v>
+      </c>
+      <c r="L3" s="89">
+        <f>526376/2000</f>
+        <v>263.18799999999999</v>
+      </c>
+      <c r="M3" s="44">
+        <f>L3/K3</f>
+        <v>0.37882676377663743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="44">
         <v>0.34373900000000002</v>
       </c>
       <c r="B4" s="44">
         <v>1.0965965</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="146">
         <v>0.58604999999999996</v>
       </c>
       <c r="D4" s="44">
@@ -31294,15 +32036,27 @@
       <c r="J4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="89">
+        <f>1172100/2000</f>
+        <v>586.04999999999995</v>
+      </c>
+      <c r="L4" s="89">
+        <f>411828/2000</f>
+        <v>205.91399999999999</v>
+      </c>
+      <c r="M4" s="44">
+        <f>L4/K4</f>
+        <v>0.35135909905298185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="44">
         <v>0.413686</v>
       </c>
       <c r="B5" s="44">
         <v>0.82222189999999995</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="146">
         <v>0.60543499999999995</v>
       </c>
       <c r="D5" s="44">
@@ -31326,15 +32080,27 @@
       <c r="J5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="89">
+        <f>1210870/2000</f>
+        <v>605.43499999999995</v>
+      </c>
+      <c r="L5" s="89">
+        <f>628291/2000</f>
+        <v>314.14550000000003</v>
+      </c>
+      <c r="M5" s="44">
+        <f>L5/K5</f>
+        <v>0.51887568442524801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="44">
         <v>0.41334500000000002</v>
       </c>
       <c r="B6" s="44">
         <v>0.82158819999999999</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="146">
         <v>0.60156500000000002</v>
       </c>
       <c r="D6" s="44">
@@ -31358,47 +32124,71 @@
       <c r="J6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="44">
+      <c r="K6" s="89">
+        <f>1246870/2000</f>
+        <v>623.43499999999995</v>
+      </c>
+      <c r="L6" s="89">
+        <f>686861/2000</f>
+        <v>343.43049999999999</v>
+      </c>
+      <c r="M6" s="44">
+        <f>L6/K6</f>
+        <v>0.55086817390746434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="133">
         <v>0.42937799999999998</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="133">
         <v>0.76508069999999995</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="148">
         <v>0.62343499999999996</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="133">
         <v>0.46538400000000002</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>299753</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>243533</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>218</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="133">
         <v>6.72185E-2</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="133">
         <v>0.77152699999999996</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="89">
+        <f>1085270/2000</f>
+        <v>542.63499999999999</v>
+      </c>
+      <c r="L7" s="89">
+        <f>663689/2000</f>
+        <v>331.84449999999998</v>
+      </c>
+      <c r="M7" s="44">
+        <f>L7/K7</f>
+        <v>0.61154274973048184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="44">
         <v>0.42793399999999998</v>
       </c>
       <c r="B8" s="44">
         <v>0.83082670000000003</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="146">
         <v>0.58342000000000005</v>
       </c>
       <c r="D8" s="44">
@@ -31422,15 +32212,27 @@
       <c r="J8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="89">
+        <f>1222730/2000</f>
+        <v>611.36500000000001</v>
+      </c>
+      <c r="L8" s="89">
+        <f>626103/2000</f>
+        <v>313.05149999999998</v>
+      </c>
+      <c r="M8" s="44">
+        <f>L8/K8</f>
+        <v>0.51205335601481927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="44">
         <v>0.43224499999999999</v>
       </c>
       <c r="B9" s="44">
         <v>0.74823139999999999</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="146">
         <v>0.58307500000000001</v>
       </c>
       <c r="D9" s="44">
@@ -31455,14 +32257,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="44">
         <v>0.43490800000000002</v>
       </c>
       <c r="B10" s="44">
         <v>0.79242690000000005</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="146">
         <v>0.54263499999999998</v>
       </c>
       <c r="D10" s="44">
@@ -31487,14 +32289,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="44">
         <v>0.42372500000000002</v>
       </c>
       <c r="B11" s="44">
         <v>0.808203</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="146">
         <v>0.61136500000000005</v>
       </c>
       <c r="D11" s="44">
@@ -31519,14 +32321,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="45">
         <v>0.34143000000000001</v>
       </c>
       <c r="B12" s="45">
         <v>1.0969423</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="149">
         <v>0.57974000000000003</v>
       </c>
       <c r="D12" s="45">
@@ -31551,14 +32353,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="44">
         <v>0.372444</v>
       </c>
       <c r="B13" s="44">
         <v>0.95492449999999995</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="146">
         <v>0.61028000000000004</v>
       </c>
       <c r="D13" s="44">
@@ -31583,14 +32385,14 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="44">
         <v>0.36549700000000002</v>
       </c>
       <c r="B14" s="44">
         <v>0.9821164</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="146">
         <v>0.61233499999999996</v>
       </c>
       <c r="D14" s="44">
@@ -31614,15 +32416,19 @@
       <c r="J14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <f>F7-F5</f>
+        <v>23716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="44">
         <v>0.42692200000000002</v>
       </c>
       <c r="B15" s="44">
         <v>0.77304349999999999</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="146">
         <v>0.63609000000000004</v>
       </c>
       <c r="D15" s="44">
@@ -31647,14 +32453,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="44">
         <v>0.42773899999999998</v>
       </c>
       <c r="B16" s="44">
         <v>0.81259459999999994</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="146">
         <v>0.61334500000000003</v>
       </c>
       <c r="D16" s="44">
@@ -31686,7 +32492,7 @@
       <c r="B17" s="44">
         <v>0.775142</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="146">
         <v>0.566415</v>
       </c>
       <c r="D17" s="44">
@@ -31718,7 +32524,7 @@
       <c r="B18" s="44">
         <v>0.82864450000000001</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="146">
         <v>0.53734000000000004</v>
       </c>
       <c r="D18" s="44">
@@ -31750,7 +32556,7 @@
       <c r="B19" s="44">
         <v>0.8572592</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="146">
         <v>0.56110499999999996</v>
       </c>
       <c r="D19" s="44">
@@ -31782,7 +32588,7 @@
       <c r="B20" s="45">
         <v>0.82686729999999997</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="149">
         <v>0.67340999999999995</v>
       </c>
       <c r="D20" s="45">
@@ -31814,7 +32620,7 @@
       <c r="B21" s="44">
         <v>0.73687939999999996</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="146">
         <v>0.59082500000000004</v>
       </c>
       <c r="D21" s="44">
@@ -31846,7 +32652,7 @@
       <c r="B22" s="44">
         <v>0.7777579</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="146">
         <v>0.624305</v>
       </c>
       <c r="D22" s="44">
@@ -31950,10 +32756,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70:E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31971,10 +32777,10 @@
         <v>85</v>
       </c>
       <c r="B1" s="116" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C1" s="117" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D1" s="116" t="s">
         <v>22</v>
@@ -31983,10 +32789,10 @@
         <v>85</v>
       </c>
       <c r="F1" s="116" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G1" s="117" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H1" s="116" t="s">
         <v>22</v>
@@ -31994,7 +32800,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B2" s="113">
         <v>112.387</v>
@@ -32006,7 +32812,7 @@
         <v>63</v>
       </c>
       <c r="E2" s="111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F2" s="113">
         <v>1.47393</v>
@@ -32020,7 +32826,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B3" s="113">
         <v>116.86199999999999</v>
@@ -32032,7 +32838,7 @@
         <v>64</v>
       </c>
       <c r="E3" s="111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F3" s="113">
         <v>1.54054</v>
@@ -32046,7 +32852,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B4" s="113">
         <v>112.958</v>
@@ -32058,7 +32864,7 @@
         <v>65</v>
       </c>
       <c r="E4" s="111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F4" s="113">
         <v>1.4942</v>
@@ -32072,7 +32878,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B5" s="113">
         <v>112.38</v>
@@ -32084,7 +32890,7 @@
         <v>66</v>
       </c>
       <c r="E5" s="111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F5" s="113">
         <v>1.5287299999999999</v>
@@ -32098,7 +32904,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B6" s="113">
         <v>112.70099999999999</v>
@@ -32110,7 +32916,7 @@
         <v>67</v>
       </c>
       <c r="E6" s="111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F6" s="113">
         <v>1.5249600000000001</v>
@@ -32124,7 +32930,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B7" s="113">
         <v>112.355</v>
@@ -32136,7 +32942,7 @@
         <v>68</v>
       </c>
       <c r="E7" s="111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F7" s="113">
         <v>1.52799</v>
@@ -32150,7 +32956,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B8" s="113">
         <v>114.111</v>
@@ -32162,7 +32968,7 @@
         <v>69</v>
       </c>
       <c r="E8" s="111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F8" s="113">
         <v>1.6797</v>
@@ -32176,7 +32982,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B9" s="113">
         <v>111.78700000000001</v>
@@ -32188,7 +32994,7 @@
         <v>70</v>
       </c>
       <c r="E9" s="111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F9" s="113">
         <v>1.5398000000000001</v>
@@ -32202,7 +33008,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B10" s="113">
         <v>113.217</v>
@@ -32214,7 +33020,7 @@
         <v>71</v>
       </c>
       <c r="E10" s="111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F10" s="113">
         <v>1.53877</v>
@@ -32227,34 +33033,34 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="105" t="s">
-        <v>208</v>
-      </c>
-      <c r="B11" s="113">
+      <c r="A11" s="141" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="142">
         <v>110.91800000000001</v>
       </c>
-      <c r="C11" s="106">
+      <c r="C11" s="143">
         <v>2.2772000000000001</v>
       </c>
-      <c r="D11" s="105" t="s">
+      <c r="D11" s="141" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="F11" s="113">
+      <c r="E11" s="144" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" s="142">
         <v>1.53498</v>
       </c>
-      <c r="G11" s="106">
+      <c r="G11" s="143">
         <v>7.05205E-2</v>
       </c>
-      <c r="H11" s="105" t="s">
+      <c r="H11" s="141" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B12" s="113">
         <v>112.584</v>
@@ -32266,7 +33072,7 @@
         <v>74</v>
       </c>
       <c r="E12" s="111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F12" s="113">
         <v>1.67367</v>
@@ -32280,7 +33086,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B13" s="113">
         <v>115.63200000000001</v>
@@ -32292,7 +33098,7 @@
         <v>75</v>
       </c>
       <c r="E13" s="111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F13" s="113">
         <v>1.6619900000000001</v>
@@ -32306,7 +33112,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B14" s="113">
         <v>115.71599999999999</v>
@@ -32318,7 +33124,7 @@
         <v>76</v>
       </c>
       <c r="E14" s="111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F14" s="113">
         <v>1.63469</v>
@@ -32332,7 +33138,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B15" s="113">
         <v>110.13</v>
@@ -32344,7 +33150,7 @@
         <v>77</v>
       </c>
       <c r="E15" s="111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F15" s="113">
         <v>1.3510200000000001</v>
@@ -32358,7 +33164,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B16" s="113">
         <v>110.334</v>
@@ -32370,7 +33176,7 @@
         <v>78</v>
       </c>
       <c r="E16" s="111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F16" s="113">
         <v>1.3867</v>
@@ -32384,7 +33190,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B17" s="113">
         <v>111.026</v>
@@ -32396,7 +33202,7 @@
         <v>79</v>
       </c>
       <c r="E17" s="111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F17" s="113">
         <v>1.3834200000000001</v>
@@ -32410,7 +33216,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B18" s="113">
         <v>110.169</v>
@@ -32422,7 +33228,7 @@
         <v>80</v>
       </c>
       <c r="E18" s="111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F18" s="113">
         <v>1.38809</v>
@@ -32436,7 +33242,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B19" s="113">
         <v>111.41</v>
@@ -32448,7 +33254,7 @@
         <v>81</v>
       </c>
       <c r="E19" s="111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F19" s="113">
         <v>1.37619</v>
@@ -32462,7 +33268,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B20" s="113">
         <v>109.23399999999999</v>
@@ -32474,7 +33280,7 @@
         <v>82</v>
       </c>
       <c r="E20" s="111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F20" s="113">
         <v>1.4071499999999999</v>
@@ -32488,7 +33294,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B21" s="113">
         <v>110.509</v>
@@ -32500,7 +33306,7 @@
         <v>83</v>
       </c>
       <c r="E21" s="111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F21" s="113">
         <v>1.4014500000000001</v>
@@ -32514,7 +33320,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="107" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B22" s="114">
         <v>102.014</v>
@@ -32526,7 +33332,7 @@
         <v>84</v>
       </c>
       <c r="E22" s="112" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F22" s="114">
         <v>0.98033800000000004</v>
@@ -32540,7 +33346,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B23" s="113">
         <v>15.1335</v>
@@ -32552,7 +33358,7 @@
         <v>63</v>
       </c>
       <c r="E23" s="111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F23" s="113">
         <v>0.114805</v>
@@ -32566,7 +33372,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B24" s="113">
         <v>15.648199999999999</v>
@@ -32578,7 +33384,7 @@
         <v>64</v>
       </c>
       <c r="E24" s="111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F24" s="113">
         <v>0.100076</v>
@@ -32592,7 +33398,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B25" s="113">
         <v>14.772399999999999</v>
@@ -32604,7 +33410,7 @@
         <v>65</v>
       </c>
       <c r="E25" s="111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F25" s="113">
         <v>0.109893</v>
@@ -32618,7 +33424,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B26" s="113">
         <v>14.6738</v>
@@ -32630,7 +33436,7 @@
         <v>66</v>
       </c>
       <c r="E26" s="111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F26" s="113">
         <v>0.112264</v>
@@ -32644,7 +33450,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B27" s="113">
         <v>14.6738</v>
@@ -32656,7 +33462,7 @@
         <v>67</v>
       </c>
       <c r="E27" s="111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F27" s="113">
         <v>0.111361</v>
@@ -32670,7 +33476,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B28" s="113">
         <v>14.712899999999999</v>
@@ -32682,7 +33488,7 @@
         <v>68</v>
       </c>
       <c r="E28" s="111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F28" s="113">
         <v>0.113168</v>
@@ -32696,7 +33502,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B29" s="113">
         <v>14.7308</v>
@@ -32708,7 +33514,7 @@
         <v>69</v>
       </c>
       <c r="E29" s="111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F29" s="113">
         <v>0.10399700000000001</v>
@@ -32722,7 +33528,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B30" s="113">
         <v>14.7042</v>
@@ -32734,7 +33540,7 @@
         <v>70</v>
       </c>
       <c r="E30" s="111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F30" s="113">
         <v>0.110601</v>
@@ -32748,7 +33554,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B31" s="113">
         <v>14.708</v>
@@ -32760,7 +33566,7 @@
         <v>71</v>
       </c>
       <c r="E31" s="111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F31" s="113">
         <v>0.109292</v>
@@ -32773,34 +33579,34 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="105" t="s">
-        <v>209</v>
-      </c>
-      <c r="B32" s="113">
+      <c r="A32" s="141" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32" s="142">
         <v>14.6808</v>
       </c>
-      <c r="C32" s="106">
+      <c r="C32" s="143">
         <v>0.19664499999999999</v>
       </c>
-      <c r="D32" s="105" t="s">
+      <c r="D32" s="141" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="111" t="s">
-        <v>207</v>
-      </c>
-      <c r="F32" s="113">
+      <c r="E32" s="144" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="142">
         <v>0.13084599999999999</v>
       </c>
-      <c r="G32" s="109">
+      <c r="G32" s="145">
         <v>8.6467799999999997E-3</v>
       </c>
-      <c r="H32" s="105" t="s">
+      <c r="H32" s="141" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B33" s="113">
         <v>14.778499999999999</v>
@@ -32812,7 +33618,7 @@
         <v>74</v>
       </c>
       <c r="E33" s="111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F33" s="113">
         <v>0.113244</v>
@@ -32826,7 +33632,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B34" s="113">
         <v>14.7888</v>
@@ -32838,7 +33644,7 @@
         <v>75</v>
       </c>
       <c r="E34" s="111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F34" s="113">
         <v>0.100496</v>
@@ -32852,7 +33658,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B35" s="113">
         <v>14.7933</v>
@@ -32864,7 +33670,7 @@
         <v>76</v>
       </c>
       <c r="E35" s="111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F35" s="113">
         <v>0.103771</v>
@@ -32878,7 +33684,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B36" s="113">
         <v>16.662099999999999</v>
@@ -32890,7 +33696,7 @@
         <v>77</v>
       </c>
       <c r="E36" s="111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F36" s="113">
         <v>0.12414</v>
@@ -32904,7 +33710,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B37" s="113">
         <v>16.593</v>
@@ -32916,7 +33722,7 @@
         <v>78</v>
       </c>
       <c r="E37" s="111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F37" s="113">
         <v>0.12489699999999999</v>
@@ -32930,7 +33736,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B38" s="113">
         <v>16.593800000000002</v>
@@ -32942,7 +33748,7 @@
         <v>79</v>
       </c>
       <c r="E38" s="111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F38" s="113">
         <v>0.121833</v>
@@ -32956,7 +33762,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B39" s="113">
         <v>16.5733</v>
@@ -32968,7 +33774,7 @@
         <v>80</v>
       </c>
       <c r="E39" s="111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F39" s="113">
         <v>0.12750900000000001</v>
@@ -32982,7 +33788,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B40" s="113">
         <v>16.5761</v>
@@ -32994,7 +33800,7 @@
         <v>81</v>
       </c>
       <c r="E40" s="111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F40" s="113">
         <v>0.12771399999999999</v>
@@ -33008,7 +33814,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B41" s="113">
         <v>16.557500000000001</v>
@@ -33020,7 +33826,7 @@
         <v>82</v>
       </c>
       <c r="E41" s="111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F41" s="113">
         <v>0.12417499999999999</v>
@@ -33034,7 +33840,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B42" s="113">
         <v>16.5611</v>
@@ -33046,7 +33852,7 @@
         <v>83</v>
       </c>
       <c r="E42" s="111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F42" s="113">
         <v>0.12336</v>
@@ -33060,7 +33866,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B43" s="114">
         <v>16.1998</v>
@@ -33072,7 +33878,7 @@
         <v>84</v>
       </c>
       <c r="E43" s="112" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F43" s="114">
         <v>0.19289200000000001</v>
@@ -33101,10 +33907,10 @@
         <v>85</v>
       </c>
       <c r="B48" s="116" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C48" s="117" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D48" s="116" t="s">
         <v>22</v>
@@ -33113,18 +33919,18 @@
         <v>85</v>
       </c>
       <c r="F48" s="116" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G48" s="117" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H48" s="116" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B49" s="113">
         <v>13.1557</v>
@@ -33136,7 +33942,7 @@
         <v>63</v>
       </c>
       <c r="E49" s="111" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F49" s="113">
         <v>0.346715</v>
@@ -33148,9 +33954,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B50" s="113">
         <v>13.015499999999999</v>
@@ -33162,7 +33968,7 @@
         <v>64</v>
       </c>
       <c r="E50" s="111" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F50" s="113">
         <v>0.32780100000000001</v>
@@ -33174,9 +33980,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B51" s="113">
         <v>13.022</v>
@@ -33188,7 +33994,7 @@
         <v>65</v>
       </c>
       <c r="E51" s="111" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F51" s="113">
         <v>0.34373900000000002</v>
@@ -33200,9 +34006,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B52" s="113">
         <v>13.6008</v>
@@ -33214,7 +34020,7 @@
         <v>66</v>
       </c>
       <c r="E52" s="111" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F52" s="113">
         <v>0.413686</v>
@@ -33225,10 +34031,14 @@
       <c r="H52" s="105" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J52">
+        <f t="shared" ref="J52:J53" si="0">EXP(B52)</f>
+        <v>806774.92096161551</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B53" s="113">
         <v>13.6</v>
@@ -33240,7 +34050,7 @@
         <v>67</v>
       </c>
       <c r="E53" s="111" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F53" s="113">
         <v>0.41334500000000002</v>
@@ -33252,9 +34062,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B54" s="113">
         <v>13.7403</v>
@@ -33266,7 +34076,7 @@
         <v>68</v>
       </c>
       <c r="E54" s="111" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F54" s="113">
         <v>0.42937799999999998</v>
@@ -33277,10 +34087,14 @@
       <c r="H54" s="105" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J54">
+        <f>EXP(B54)</f>
+        <v>927548.16311285354</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B55" s="113">
         <v>13.650700000000001</v>
@@ -33292,7 +34106,7 @@
         <v>69</v>
       </c>
       <c r="E55" s="111" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F55" s="113">
         <v>0.42793399999999998</v>
@@ -33304,9 +34118,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B56" s="113">
         <v>13.765599999999999</v>
@@ -33318,7 +34132,7 @@
         <v>70</v>
       </c>
       <c r="E56" s="111" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F56" s="113">
         <v>0.43224499999999999</v>
@@ -33330,9 +34144,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B57" s="113">
         <v>13.6884</v>
@@ -33344,7 +34158,7 @@
         <v>71</v>
       </c>
       <c r="E57" s="111" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F57" s="113">
         <v>0.43490800000000002</v>
@@ -33355,36 +34169,52 @@
       <c r="H57" s="105" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="105" t="s">
-        <v>211</v>
-      </c>
-      <c r="B58" s="113">
+      <c r="J57">
+        <f t="shared" ref="J55:J58" si="1">EXP(B57)</f>
+        <v>880636.30585768004</v>
+      </c>
+      <c r="L57">
+        <f>EXP(B57)</f>
+        <v>880636.30585768004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="141" t="s">
+        <v>209</v>
+      </c>
+      <c r="B58" s="142">
         <v>13.6686</v>
       </c>
-      <c r="C58" s="109">
+      <c r="C58" s="145">
         <v>0.17493500000000001</v>
       </c>
-      <c r="D58" s="105" t="s">
+      <c r="D58" s="141" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="111" t="s">
-        <v>201</v>
-      </c>
-      <c r="F58" s="113">
+      <c r="E58" s="144" t="s">
+        <v>200</v>
+      </c>
+      <c r="F58" s="142">
         <v>0.42372500000000002</v>
       </c>
-      <c r="G58" s="109">
+      <c r="G58" s="145">
         <v>2.09055E-2</v>
       </c>
-      <c r="H58" s="105" t="s">
+      <c r="H58" s="141" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>863371.19564031519</v>
+      </c>
+      <c r="L58">
+        <f>EXP(B54)</f>
+        <v>927548.16311285354</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B59" s="113">
         <v>13.6891</v>
@@ -33396,7 +34226,7 @@
         <v>74</v>
       </c>
       <c r="E59" s="111" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F59" s="113">
         <v>0.43124099999999999</v>
@@ -33408,9 +34238,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B60" s="113">
         <v>13.806699999999999</v>
@@ -33422,7 +34252,7 @@
         <v>75</v>
       </c>
       <c r="E60" s="111" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F60" s="113">
         <v>0.44367000000000001</v>
@@ -33434,9 +34264,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B61" s="113">
         <v>13.696400000000001</v>
@@ -33448,7 +34278,7 @@
         <v>76</v>
       </c>
       <c r="E61" s="111" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F61" s="113">
         <v>0.42668499999999998</v>
@@ -33460,9 +34290,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B62" s="113">
         <v>12.9869</v>
@@ -33474,7 +34304,7 @@
         <v>77</v>
       </c>
       <c r="E62" s="111" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F62" s="113">
         <v>0.34143000000000001</v>
@@ -33486,9 +34316,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B63" s="113">
         <v>13.233700000000001</v>
@@ -33500,7 +34330,7 @@
         <v>78</v>
       </c>
       <c r="E63" s="111" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F63" s="113">
         <v>0.372444</v>
@@ -33512,9 +34342,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B64" s="113">
         <v>13.1997</v>
@@ -33526,7 +34356,7 @@
         <v>79</v>
       </c>
       <c r="E64" s="111" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F64" s="113">
         <v>0.36549700000000002</v>
@@ -33540,7 +34370,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B65" s="113">
         <v>13.688700000000001</v>
@@ -33552,7 +34382,7 @@
         <v>80</v>
       </c>
       <c r="E65" s="111" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F65" s="113">
         <v>0.42692200000000002</v>
@@ -33566,7 +34396,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B66" s="113">
         <v>13.630599999999999</v>
@@ -33578,7 +34408,7 @@
         <v>81</v>
       </c>
       <c r="E66" s="111" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F66" s="113">
         <v>0.42773899999999998</v>
@@ -33592,7 +34422,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B67" s="113">
         <v>13.668799999999999</v>
@@ -33604,7 +34434,7 @@
         <v>82</v>
       </c>
       <c r="E67" s="111" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F67" s="113">
         <v>0.42565900000000001</v>
@@ -33618,7 +34448,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B68" s="113">
         <v>13.588699999999999</v>
@@ -33630,7 +34460,7 @@
         <v>83</v>
       </c>
       <c r="E68" s="111" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F68" s="113">
         <v>0.42496600000000001</v>
@@ -33644,7 +34474,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B69" s="114">
         <v>13.515700000000001</v>
@@ -33656,7 +34486,7 @@
         <v>84</v>
       </c>
       <c r="E69" s="112" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F69" s="114">
         <v>0.40865200000000002</v>
@@ -33670,7 +34500,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B70" s="113">
         <v>-4.1051900000000002E-2</v>
@@ -33691,7 +34521,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B71" s="113">
         <v>-2.6145600000000001E-2</v>
@@ -33703,7 +34533,7 @@
         <v>64</v>
       </c>
       <c r="E71" s="111">
-        <f t="shared" ref="E71:E90" si="0">EXP(B71)</f>
+        <f t="shared" ref="E71:E90" si="2">EXP(B71)</f>
         <v>0.97419323674684122</v>
       </c>
       <c r="F71" s="105"/>
@@ -33712,7 +34542,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B72" s="113">
         <v>9.2211299999999996E-2</v>
@@ -33724,7 +34554,7 @@
         <v>65</v>
       </c>
       <c r="E72" s="111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0965965084445251</v>
       </c>
       <c r="F72" s="105"/>
@@ -33733,7 +34563,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B73" s="113">
         <v>-0.195745</v>
@@ -33745,7 +34575,7 @@
         <v>66</v>
       </c>
       <c r="E73" s="111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.82222187452597406</v>
       </c>
       <c r="F73" s="105"/>
@@ -33754,7 +34584,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B74" s="113">
         <v>-0.196516</v>
@@ -33766,7 +34596,7 @@
         <v>67</v>
       </c>
       <c r="E74" s="111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.82158818577911741</v>
       </c>
       <c r="F74" s="105"/>
@@ -33775,7 +34605,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B75" s="113">
         <v>-0.26777400000000001</v>
@@ -33787,7 +34617,7 @@
         <v>68</v>
       </c>
       <c r="E75" s="111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.76508066979707978</v>
       </c>
       <c r="F75" s="105"/>
@@ -33796,7 +34626,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B76" s="113">
         <v>-0.185334</v>
@@ -33808,7 +34638,7 @@
         <v>69</v>
       </c>
       <c r="E76" s="111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.83082674137349311</v>
       </c>
       <c r="F76" s="105"/>
@@ -33817,7 +34647,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B77" s="113">
         <v>-0.290043</v>
@@ -33829,7 +34659,7 @@
         <v>70</v>
       </c>
       <c r="E77" s="111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.74823139293691909</v>
       </c>
       <c r="F77" s="105"/>
@@ -33838,7 +34668,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B78" s="113">
         <v>-0.232655</v>
@@ -33850,7 +34680,7 @@
         <v>71</v>
       </c>
       <c r="E78" s="111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.79242691365564133</v>
       </c>
       <c r="F78" s="105"/>
@@ -33859,7 +34689,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B79" s="113">
         <v>-0.21294199999999999</v>
@@ -33871,7 +34701,7 @@
         <v>72</v>
       </c>
       <c r="E79" s="111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.80820301163179187</v>
       </c>
       <c r="F79" s="105"/>
@@ -33880,7 +34710,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B80" s="113">
         <v>-0.190111</v>
@@ -33892,7 +34722,7 @@
         <v>74</v>
       </c>
       <c r="E80" s="111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.82686734657378791</v>
       </c>
       <c r="F80" s="105"/>
@@ -33901,7 +34731,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B81" s="113">
         <v>-0.30533100000000002</v>
@@ -33913,7 +34743,7 @@
         <v>75</v>
       </c>
       <c r="E81" s="111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.73687942693023623</v>
       </c>
       <c r="F81" s="105"/>
@@ -33922,7 +34752,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B82" s="113">
         <v>-0.25134000000000001</v>
@@ -33934,7 +34764,7 @@
         <v>76</v>
       </c>
       <c r="E82" s="111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.77775788891722419</v>
       </c>
       <c r="F82" s="105"/>
@@ -33943,7 +34773,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B83" s="113">
         <v>9.2526600000000001E-2</v>
@@ -33955,7 +34785,7 @@
         <v>77</v>
       </c>
       <c r="E83" s="111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0969423198379389</v>
       </c>
       <c r="F83" s="105"/>
@@ -33964,7 +34794,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B84" s="113">
         <v>-4.6122999999999997E-2</v>
@@ -33976,7 +34806,7 @@
         <v>78</v>
       </c>
       <c r="E84" s="111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.95492449925348388</v>
       </c>
       <c r="F84" s="105"/>
@@ -33985,7 +34815,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B85" s="113">
         <v>-1.80454E-2</v>
@@ -33997,7 +34827,7 @@
         <v>79</v>
       </c>
       <c r="E85" s="111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.98211644325961189</v>
       </c>
       <c r="F85" s="105"/>
@@ -34006,7 +34836,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B86" s="113">
         <v>-0.25741999999999998</v>
@@ -34018,7 +34848,7 @@
         <v>80</v>
       </c>
       <c r="E86" s="111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.77304346731719553</v>
       </c>
       <c r="F86" s="105"/>
@@ -34027,7 +34857,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B87" s="113">
         <v>-0.20752300000000001</v>
@@ -34039,7 +34869,7 @@
         <v>81</v>
       </c>
       <c r="E87" s="111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.81259455188347141</v>
       </c>
       <c r="F87" s="105"/>
@@ -34048,7 +34878,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B88" s="113">
         <v>-0.25470900000000002</v>
@@ -34060,13 +34890,13 @@
         <v>82</v>
       </c>
       <c r="E88" s="111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.77514203147552241</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B89" s="113">
         <v>-0.18796399999999999</v>
@@ -34078,13 +34908,13 @@
         <v>83</v>
       </c>
       <c r="E89" s="111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.82864453789908976</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B90" s="114">
         <v>-0.15401500000000001</v>
@@ -34096,7 +34926,7 @@
         <v>84</v>
       </c>
       <c r="E90" s="111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.8572591620275849</v>
       </c>
     </row>
@@ -34111,10 +34941,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34127,18 +34957,18 @@
     <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="100" t="s">
         <v>85</v>
       </c>
       <c r="B1" s="101" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="101" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="102" t="s">
         <v>190</v>
-      </c>
-      <c r="C1" s="101" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" s="102" t="s">
-        <v>191</v>
       </c>
       <c r="E1" s="100" t="s">
         <v>22</v>
@@ -34147,21 +34977,21 @@
         <v>85</v>
       </c>
       <c r="G1" s="101" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" s="101" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="102" t="s">
         <v>190</v>
-      </c>
-      <c r="H1" s="101" t="s">
-        <v>192</v>
-      </c>
-      <c r="I1" s="102" t="s">
-        <v>191</v>
       </c>
       <c r="J1" s="100" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B2" s="12">
         <v>0.32587500000000003</v>
@@ -34177,7 +35007,7 @@
         <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G2" s="91">
         <v>249809</v>
@@ -34197,9 +35027,9 @@
         <v>0.37766590319825233</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B3" s="12">
         <v>0.290352</v>
@@ -34215,7 +35045,7 @@
         <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G3" s="91">
         <v>263188.5</v>
@@ -34234,10 +35064,14 @@
         <f>G3/G24</f>
         <v>0.37882475710687297</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="O3" s="134">
+        <f>(G3-G2)/G2</f>
+        <v>5.3558919014126793E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B4" s="12">
         <v>0.33172299999999999</v>
@@ -34253,7 +35087,7 @@
         <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G4" s="91">
         <v>205914</v>
@@ -34268,10 +35102,14 @@
       <c r="J4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="L4">
+        <f t="shared" ref="L4:L9" si="2">H4/G4</f>
+        <v>9.5908728886816827E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B5" s="12">
         <v>0.44129200000000002</v>
@@ -34287,7 +35125,7 @@
         <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G5" s="91">
         <v>314145.5</v>
@@ -34302,10 +35140,14 @@
       <c r="J5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0.18713303230509429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B6" s="12">
         <v>0.44066499999999997</v>
@@ -34321,7 +35163,7 @@
         <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G6" s="91">
         <v>311315.5</v>
@@ -34336,10 +35178,14 @@
       <c r="J6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0.1879267174297457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B7" s="12">
         <v>0.46538400000000002</v>
@@ -34355,7 +35201,7 @@
         <v>68</v>
       </c>
       <c r="F7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G7" s="91">
         <v>343430.5</v>
@@ -34370,10 +35216,14 @@
       <c r="J7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.19389658169556867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B8" s="12">
         <v>0.47111999999999998</v>
@@ -34389,7 +35239,7 @@
         <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G8" s="91">
         <v>322844</v>
@@ -34404,10 +35254,14 @@
       <c r="J8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0.1918511727026056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B9" s="12">
         <v>0.48534300000000002</v>
@@ -34423,7 +35277,7 @@
         <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G9" s="91">
         <v>346768.5</v>
@@ -34438,10 +35292,14 @@
       <c r="J9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>0.19278423501557956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B10" s="12">
         <v>0.488284</v>
@@ -34457,7 +35315,7 @@
         <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G10" s="91">
         <v>331844.5</v>
@@ -34472,10 +35330,14 @@
       <c r="J10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="L10">
+        <f>H10/G10</f>
+        <v>0.18763607653584735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B11" s="12">
         <v>0.46571000000000001</v>
@@ -34491,7 +35353,7 @@
         <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G11" s="91">
         <v>313051.5</v>
@@ -34507,9 +35369,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B12" s="12">
         <v>0.58564899999999998</v>
@@ -34525,7 +35387,7 @@
         <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G12" s="91">
         <v>307192.5</v>
@@ -34541,9 +35403,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B13" s="12">
         <v>0.49488399999999999</v>
@@ -34559,7 +35421,7 @@
         <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G13" s="91">
         <v>359075</v>
@@ -34574,10 +35436,14 @@
       <c r="J13" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="L13" s="140">
+        <f>(G10-G7)/G7</f>
+        <v>-3.3736083428816017E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B14" s="12">
         <v>0.44151200000000002</v>
@@ -34593,7 +35459,7 @@
         <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G14" s="91">
         <v>363413</v>
@@ -34609,9 +35475,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B15" s="12">
         <v>0.326824</v>
@@ -34627,7 +35493,7 @@
         <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G15" s="91">
         <v>206448.5</v>
@@ -34643,9 +35509,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B16" s="12">
         <v>0.37090800000000002</v>
@@ -34661,7 +35527,7 @@
         <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G16" s="91">
         <v>301076.5</v>
@@ -34677,9 +35543,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B17" s="12">
         <v>0.35186200000000001</v>
@@ -34695,7 +35561,7 @@
         <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G17" s="91">
         <v>282757.5</v>
@@ -34711,9 +35577,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B18" s="12">
         <v>0.43972800000000001</v>
@@ -34729,7 +35595,7 @@
         <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G18" s="91">
         <v>356461</v>
@@ -34745,9 +35611,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B19" s="12">
         <v>0.45541900000000002</v>
@@ -34763,7 +35629,7 @@
         <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G19" s="91">
         <v>344257</v>
@@ -34779,9 +35645,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B20" s="12">
         <v>0.47370400000000001</v>
@@ -34797,7 +35663,7 @@
         <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G20" s="91">
         <v>354249.5</v>
@@ -34813,9 +35679,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B21" s="12">
         <v>0.47621799999999997</v>
@@ -34831,7 +35697,7 @@
         <v>83</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G21" s="91">
         <v>334345.5</v>
@@ -34847,9 +35713,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="43" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B22" s="55">
         <v>0.42194599999999999</v>
@@ -34865,7 +35731,7 @@
         <v>84</v>
       </c>
       <c r="F22" s="43" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G22" s="92">
         <v>323120</v>
@@ -34881,9 +35747,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B23" s="91">
         <v>144694</v>
@@ -34899,7 +35765,7 @@
         <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G23" s="91">
         <v>661455</v>
@@ -34914,10 +35780,14 @@
       <c r="J23" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="L23">
+        <f t="shared" ref="L23:L30" si="3">H23/G23</f>
+        <v>2.1911241127514341E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B24" s="91">
         <v>141115</v>
@@ -34933,7 +35803,7 @@
         <v>64</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G24" s="91">
         <v>694750</v>
@@ -34948,10 +35818,18 @@
       <c r="J24" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>1.8117740194314502E-2</v>
+      </c>
+      <c r="N24" s="134">
+        <f>(B23-B24)/B23</f>
+        <v>2.4734957911178072E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B25" s="91">
         <v>131883</v>
@@ -34967,7 +35845,7 @@
         <v>65</v>
       </c>
       <c r="F25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G25" s="91">
         <v>586050</v>
@@ -34982,10 +35860,18 @@
       <c r="J25" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="L25">
+        <f t="shared" si="3"/>
+        <v>4.6195973039843019E-2</v>
+      </c>
+      <c r="N25" s="134">
+        <f>(G24-G23)/G23</f>
+        <v>5.0336001693236876E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B26" s="91">
         <v>219817</v>
@@ -35001,7 +35887,7 @@
         <v>66</v>
       </c>
       <c r="F26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G26" s="91">
         <v>605435</v>
@@ -35016,10 +35902,14 @@
       <c r="J26" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="L26">
+        <f t="shared" si="3"/>
+        <v>8.3866145829032013E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B27" s="91">
         <v>218610</v>
@@ -35035,7 +35925,7 @@
         <v>67</v>
       </c>
       <c r="F27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G27" s="91">
         <v>601565</v>
@@ -35050,10 +35940,14 @@
       <c r="J27" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="L27">
+        <f t="shared" si="3"/>
+        <v>8.5315801284981674E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B28" s="91">
         <v>243533</v>
@@ -35069,7 +35963,7 @@
         <v>68</v>
       </c>
       <c r="F28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G28" s="91">
         <v>623435</v>
@@ -35084,10 +35978,14 @@
       <c r="J28" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="L28">
+        <f t="shared" si="3"/>
+        <v>8.7022704852951785E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B29" s="91">
         <v>238552</v>
@@ -35103,7 +36001,7 @@
         <v>69</v>
       </c>
       <c r="F29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G29" s="91">
         <v>583420</v>
@@ -35118,10 +36016,14 @@
       <c r="J29" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="L29">
+        <f t="shared" si="3"/>
+        <v>8.7569846765623391E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B30" s="91">
         <v>249542</v>
@@ -35137,7 +36039,7 @@
         <v>70</v>
       </c>
       <c r="F30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G30" s="91">
         <v>583075</v>
@@ -35152,10 +36054,14 @@
       <c r="J30" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="L30">
+        <f t="shared" si="3"/>
+        <v>6.1221283711357884E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B31" s="91">
         <v>239088</v>
@@ -35171,7 +36077,7 @@
         <v>71</v>
       </c>
       <c r="F31" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G31" s="91">
         <v>542635</v>
@@ -35186,10 +36092,14 @@
       <c r="J31" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="L31">
+        <f>H31/G31</f>
+        <v>5.6907313387451974E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B32" s="91">
         <v>251825</v>
@@ -35205,7 +36115,7 @@
         <v>72</v>
       </c>
       <c r="F32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G32" s="91">
         <v>611365</v>
@@ -35220,10 +36130,14 @@
       <c r="J32" t="s">
         <v>72</v>
       </c>
+      <c r="L32">
+        <f>H32/G32</f>
+        <v>3.8807422734373084E-2</v>
+      </c>
     </row>
     <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B33" s="91">
         <v>210985</v>
@@ -35239,7 +36153,7 @@
         <v>74</v>
       </c>
       <c r="F33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G33" s="91">
         <v>673410</v>
@@ -35257,7 +36171,7 @@
     </row>
     <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B34" s="91">
         <v>270385</v>
@@ -35273,7 +36187,7 @@
         <v>75</v>
       </c>
       <c r="F34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G34" s="91">
         <v>590825</v>
@@ -35291,7 +36205,7 @@
     </row>
     <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B35" s="91">
         <v>259270</v>
@@ -35307,7 +36221,7 @@
         <v>76</v>
       </c>
       <c r="F35" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G35" s="91">
         <v>624305</v>
@@ -35325,7 +36239,7 @@
     </row>
     <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B36" s="91">
         <v>132386</v>
@@ -35341,7 +36255,7 @@
         <v>77</v>
       </c>
       <c r="F36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G36" s="91">
         <v>579740</v>
@@ -35359,7 +36273,7 @@
     </row>
     <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B37" s="91">
         <v>196936</v>
@@ -35375,7 +36289,7 @@
         <v>78</v>
       </c>
       <c r="F37" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G37" s="91">
         <v>610280</v>
@@ -35393,7 +36307,7 @@
     </row>
     <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="91">
         <v>188156</v>
@@ -35409,7 +36323,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G38" s="91">
         <v>612335</v>
@@ -35427,7 +36341,7 @@
     </row>
     <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B39" s="91">
         <v>250637</v>
@@ -35443,7 +36357,7 @@
         <v>80</v>
       </c>
       <c r="F39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G39" s="91">
         <v>636090</v>
@@ -35461,7 +36375,7 @@
     </row>
     <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B40" s="91">
         <v>242024</v>
@@ -35477,7 +36391,7 @@
         <v>81</v>
       </c>
       <c r="F40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G40" s="91">
         <v>613345</v>
@@ -35495,7 +36409,7 @@
     </row>
     <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B41" s="91">
         <v>252598</v>
@@ -35511,7 +36425,7 @@
         <v>82</v>
       </c>
       <c r="F41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G41" s="91">
         <v>566415</v>
@@ -35529,7 +36443,7 @@
     </row>
     <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B42" s="91">
         <v>240463</v>
@@ -35545,7 +36459,7 @@
         <v>83</v>
       </c>
       <c r="F42" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G42" s="91">
         <v>537340</v>
@@ -35563,7 +36477,7 @@
     </row>
     <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B43" s="92">
         <v>230020</v>
@@ -35579,7 +36493,7 @@
         <v>84</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G43" s="92">
         <v>561105</v>
@@ -35627,91 +36541,132 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B49" s="91"/>
-      <c r="C49" s="91"/>
       <c r="F49" s="103"/>
       <c r="G49" s="104"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B50" s="91"/>
-      <c r="C50" s="91"/>
       <c r="F50" s="103"/>
       <c r="G50" s="104"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
       <c r="F51" s="103"/>
       <c r="G51" s="104"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B52" s="91"/>
-      <c r="C52" s="91"/>
       <c r="F52" s="103"/>
       <c r="G52" s="104"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B53" s="91"/>
-      <c r="C53" s="91"/>
       <c r="F53" s="103"/>
       <c r="G53" s="104"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B54" s="91"/>
-      <c r="C54" s="91"/>
+      <c r="D54" s="86">
+        <f t="shared" ref="D52:D62" si="4">C23/B23</f>
+        <v>0.10134421606977484</v>
+      </c>
+      <c r="E54" t="s">
+        <v>63</v>
+      </c>
       <c r="F54" s="103"/>
       <c r="G54" s="104"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B55" s="91"/>
-      <c r="C55" s="91"/>
+      <c r="D55" s="86">
+        <f t="shared" si="4"/>
+        <v>8.3562342770081136E-2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>64</v>
+      </c>
       <c r="F55" s="103"/>
       <c r="G55" s="104"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B56" s="91"/>
-      <c r="C56" s="91"/>
+      <c r="D56" s="86">
+        <f t="shared" si="4"/>
+        <v>0.13656043614415808</v>
+      </c>
+      <c r="E56" t="s">
+        <v>65</v>
+      </c>
       <c r="F56" s="103"/>
       <c r="G56" s="104"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B57" s="91"/>
-      <c r="C57" s="91"/>
+      <c r="D57" s="86">
+        <f t="shared" si="4"/>
+        <v>0.2240836695978928</v>
+      </c>
+      <c r="E57" t="s">
+        <v>66</v>
+      </c>
       <c r="F57" s="103"/>
       <c r="G57" s="104"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B58" s="91"/>
-      <c r="C58" s="91"/>
+      <c r="D58" s="86">
+        <f t="shared" si="4"/>
+        <v>0.22415122821462877</v>
+      </c>
+      <c r="E58" t="s">
+        <v>67</v>
+      </c>
       <c r="F58" s="103"/>
       <c r="G58" s="104"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B59" s="91"/>
-      <c r="C59" s="91"/>
+      <c r="D59" s="86">
+        <f t="shared" si="4"/>
+        <v>0.23150004311530675</v>
+      </c>
+      <c r="E59" t="s">
+        <v>68</v>
+      </c>
       <c r="F59" s="103"/>
       <c r="G59" s="104"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B60" s="91"/>
-      <c r="C60" s="91"/>
       <c r="F60" s="103"/>
       <c r="G60" s="104"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B61" s="91"/>
-      <c r="C61" s="91"/>
       <c r="F61" s="103"/>
       <c r="G61" s="104"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B62" s="91"/>
-      <c r="C62" s="91"/>
+      <c r="D62" s="86">
+        <f t="shared" si="4"/>
+        <v>0.22565958977447634</v>
+      </c>
+      <c r="E62" t="s">
+        <v>71</v>
+      </c>
       <c r="F62" s="103"/>
       <c r="G62" s="104"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B63" s="91"/>
-      <c r="C63" s="91"/>
+      <c r="D63" s="86">
+        <f>C32/B32</f>
+        <v>0.20463417055494887</v>
+      </c>
+      <c r="E63" t="s">
+        <v>72</v>
+      </c>
       <c r="F63" s="103"/>
       <c r="G63" s="104"/>
     </row>

--- a/2023_ASSESSMENT/SEPTEMBER_MODELS/summary.xlsx
+++ b/2023_ASSESSMENT/SEPTEMBER_MODELS/summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9876" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9876" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="10" r:id="rId1"/>
@@ -793,8 +793,8 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="0.0000000"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1502,24 +1502,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1533,18 +1515,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="7" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1605,6 +1587,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1639,7 +1639,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3972,7 +3971,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4244,7 +4242,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4362,7 +4359,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4518,7 +4514,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4790,7 +4785,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4908,7 +4902,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5072,7 +5065,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5523,7 +5515,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5641,7 +5632,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5722,7 +5712,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12288,19 +12277,19 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="129">
+      <c r="A8" s="123">
         <v>6.72185E-2</v>
       </c>
-      <c r="B8" s="129">
+      <c r="B8" s="123">
         <v>0.77152699999999996</v>
       </c>
-      <c r="C8" s="130">
+      <c r="C8" s="124">
         <v>2287.67</v>
       </c>
-      <c r="D8" s="131">
+      <c r="D8" s="125">
         <v>898.91700000000003</v>
       </c>
-      <c r="E8" s="132">
+      <c r="E8" s="126">
         <v>131.89599999999999</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -12368,19 +12357,19 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="129">
+      <c r="A12" s="123">
         <v>7.5798500000000005E-2</v>
       </c>
-      <c r="B12" s="129">
+      <c r="B12" s="123">
         <v>0.71493399999999996</v>
       </c>
-      <c r="C12" s="130">
+      <c r="C12" s="124">
         <v>1866.99</v>
       </c>
-      <c r="D12" s="131">
+      <c r="D12" s="125">
         <v>691.01499999999999</v>
       </c>
-      <c r="E12" s="132">
+      <c r="E12" s="126">
         <v>32.8964</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -16419,31 +16408,31 @@
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A128" s="138">
+      <c r="A128" s="132">
         <v>0.46857900000000002</v>
       </c>
-      <c r="B128" s="138">
+      <c r="B128" s="132">
         <v>0.60653069999999998</v>
       </c>
-      <c r="C128" s="138">
+      <c r="C128" s="132">
         <v>1186590</v>
       </c>
-      <c r="D128" s="138">
+      <c r="D128" s="132">
         <v>0.69892299999999996</v>
       </c>
-      <c r="E128" s="138">
+      <c r="E128" s="132">
         <v>423088</v>
       </c>
-      <c r="F128" s="139">
+      <c r="F128" s="133">
         <v>313571</v>
       </c>
-      <c r="G128" s="139" t="s">
+      <c r="G128" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="H128" s="139">
+      <c r="H128" s="133">
         <v>-0.5</v>
       </c>
-      <c r="I128" s="139">
+      <c r="I128" s="133">
         <v>142.09899999999999</v>
       </c>
       <c r="J128">
@@ -16456,31 +16445,31 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="139">
+      <c r="A129" s="133">
         <v>0.46284999999999998</v>
       </c>
-      <c r="B129" s="139">
+      <c r="B129" s="133">
         <v>0.63762819999999998</v>
       </c>
-      <c r="C129" s="139">
+      <c r="C129" s="133">
         <v>1156780</v>
       </c>
-      <c r="D129" s="139">
+      <c r="D129" s="133">
         <v>0.68002899999999999</v>
       </c>
-      <c r="E129" s="139">
+      <c r="E129" s="133">
         <v>398220</v>
       </c>
-      <c r="F129" s="139">
+      <c r="F129" s="133">
         <v>298556</v>
       </c>
-      <c r="G129" s="139" t="s">
+      <c r="G129" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="H129" s="139">
+      <c r="H129" s="133">
         <v>-0.45</v>
       </c>
-      <c r="I129" s="139">
+      <c r="I129" s="133">
         <v>141.94999999999999</v>
       </c>
       <c r="J129">
@@ -16493,31 +16482,31 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="139">
+      <c r="A130" s="133">
         <v>0.45673900000000001</v>
       </c>
-      <c r="B130" s="139">
+      <c r="B130" s="133">
         <v>0.67032000000000003</v>
       </c>
-      <c r="C130" s="139">
+      <c r="C130" s="133">
         <v>1141010</v>
       </c>
-      <c r="D130" s="139">
+      <c r="D130" s="133">
         <v>0.66403900000000005</v>
       </c>
-      <c r="E130" s="139">
+      <c r="E130" s="133">
         <v>373059</v>
       </c>
-      <c r="F130" s="139">
+      <c r="F130" s="133">
         <v>283536</v>
       </c>
-      <c r="G130" s="139" t="s">
+      <c r="G130" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="H130" s="139">
+      <c r="H130" s="133">
         <v>-0.4</v>
       </c>
-      <c r="I130" s="139">
+      <c r="I130" s="133">
         <v>141.459</v>
       </c>
       <c r="J130">
@@ -16530,31 +16519,31 @@
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="139">
+      <c r="A131" s="133">
         <v>0.45048100000000002</v>
       </c>
-      <c r="B131" s="139">
+      <c r="B131" s="133">
         <v>0.70468810000000004</v>
       </c>
-      <c r="C131" s="139">
+      <c r="C131" s="133">
         <v>1122820</v>
       </c>
-      <c r="D131" s="139">
+      <c r="D131" s="133">
         <v>0.645123</v>
       </c>
-      <c r="E131" s="139">
+      <c r="E131" s="133">
         <v>349905</v>
       </c>
-      <c r="F131" s="139">
+      <c r="F131" s="133">
         <v>269474</v>
       </c>
-      <c r="G131" s="139" t="s">
+      <c r="G131" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="H131" s="139">
+      <c r="H131" s="133">
         <v>-0.35</v>
       </c>
-      <c r="I131" s="139">
+      <c r="I131" s="133">
         <v>141.21899999999999</v>
       </c>
       <c r="J131">
@@ -16567,31 +16556,31 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="139">
+      <c r="A132" s="133">
         <v>0.44400400000000001</v>
       </c>
-      <c r="B132" s="139">
+      <c r="B132" s="133">
         <v>0.74081819999999998</v>
       </c>
-      <c r="C132" s="139">
+      <c r="C132" s="133">
         <v>1105740</v>
       </c>
-      <c r="D132" s="139">
+      <c r="D132" s="133">
         <v>0.62744200000000006</v>
       </c>
-      <c r="E132" s="139">
+      <c r="E132" s="133">
         <v>328121</v>
       </c>
-      <c r="F132" s="139">
+      <c r="F132" s="133">
         <v>256106</v>
       </c>
-      <c r="G132" s="139" t="s">
+      <c r="G132" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="H132" s="139">
+      <c r="H132" s="133">
         <v>-0.3</v>
       </c>
-      <c r="I132" s="139">
+      <c r="I132" s="133">
         <v>141.06299999999999</v>
       </c>
       <c r="J132">
@@ -16604,31 +16593,31 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="139">
+      <c r="A133" s="133">
         <v>0.43728899999999998</v>
       </c>
-      <c r="B133" s="139">
+      <c r="B133" s="133">
         <v>0.77880079999999996</v>
       </c>
-      <c r="C133" s="139">
+      <c r="C133" s="133">
         <v>1090910</v>
       </c>
-      <c r="D133" s="139">
+      <c r="D133" s="133">
         <v>0.60968</v>
       </c>
-      <c r="E133" s="139">
+      <c r="E133" s="133">
         <v>307510</v>
       </c>
-      <c r="F133" s="139">
+      <c r="F133" s="133">
         <v>243336</v>
       </c>
-      <c r="G133" s="139" t="s">
+      <c r="G133" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="H133" s="139">
+      <c r="H133" s="133">
         <v>-0.25</v>
       </c>
-      <c r="I133" s="139">
+      <c r="I133" s="133">
         <v>140.98699999999999</v>
       </c>
       <c r="J133">
@@ -16641,31 +16630,31 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="139">
+      <c r="A134" s="133">
         <v>0.43032900000000002</v>
       </c>
-      <c r="B134" s="139">
+      <c r="B134" s="133">
         <v>0.81873079999999998</v>
       </c>
-      <c r="C134" s="139">
+      <c r="C134" s="133">
         <v>1078340</v>
       </c>
-      <c r="D134" s="139">
+      <c r="D134" s="133">
         <v>0.591858</v>
       </c>
-      <c r="E134" s="139">
+      <c r="E134" s="133">
         <v>288016</v>
       </c>
-      <c r="F134" s="139">
+      <c r="F134" s="133">
         <v>231135</v>
       </c>
-      <c r="G134" s="139" t="s">
+      <c r="G134" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="H134" s="139">
+      <c r="H134" s="133">
         <v>-0.2</v>
       </c>
-      <c r="I134" s="139">
+      <c r="I134" s="133">
         <v>141.00399999999999</v>
       </c>
       <c r="J134">
@@ -16678,31 +16667,31 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="139">
+      <c r="A135" s="133">
         <v>0.42318499999999998</v>
       </c>
-      <c r="B135" s="139">
+      <c r="B135" s="133">
         <v>0.86070800000000003</v>
       </c>
-      <c r="C135" s="139">
+      <c r="C135" s="133">
         <v>1058930</v>
       </c>
-      <c r="D135" s="139">
+      <c r="D135" s="133">
         <v>0.57824200000000003</v>
       </c>
-      <c r="E135" s="139">
+      <c r="E135" s="133">
         <v>270253</v>
       </c>
-      <c r="F135" s="139">
+      <c r="F135" s="133">
         <v>219879</v>
       </c>
-      <c r="G135" s="139" t="s">
+      <c r="G135" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="H135" s="139">
+      <c r="H135" s="133">
         <v>-0.15</v>
       </c>
-      <c r="I135" s="139">
+      <c r="I135" s="133">
         <v>141.27000000000001</v>
       </c>
       <c r="J135">
@@ -16715,31 +16704,31 @@
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="139">
+      <c r="A136" s="133">
         <v>0.41575099999999998</v>
       </c>
-      <c r="B136" s="139">
+      <c r="B136" s="133">
         <v>0.90483740000000001</v>
       </c>
-      <c r="C136" s="139">
+      <c r="C136" s="133">
         <v>1047810</v>
       </c>
-      <c r="D136" s="139">
+      <c r="D136" s="133">
         <v>0.55849199999999999</v>
       </c>
-      <c r="E136" s="139">
+      <c r="E136" s="133">
         <v>253008</v>
       </c>
-      <c r="F136" s="139">
+      <c r="F136" s="133">
         <v>208847</v>
       </c>
-      <c r="G136" s="139" t="s">
+      <c r="G136" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="H136" s="139">
+      <c r="H136" s="133">
         <v>-0.1</v>
       </c>
-      <c r="I136" s="139">
+      <c r="I136" s="133">
         <v>141.55600000000001</v>
       </c>
       <c r="J136">
@@ -16752,31 +16741,31 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="139">
+      <c r="A137" s="133">
         <v>0.40793499999999999</v>
       </c>
-      <c r="B137" s="139">
+      <c r="B137" s="133">
         <v>0.9512294</v>
       </c>
-      <c r="C137" s="139">
+      <c r="C137" s="133">
         <v>1047180</v>
       </c>
-      <c r="D137" s="139">
+      <c r="D137" s="133">
         <v>0.547732</v>
       </c>
-      <c r="E137" s="139">
+      <c r="E137" s="133">
         <v>236065</v>
       </c>
-      <c r="F137" s="139">
+      <c r="F137" s="133">
         <v>197917</v>
       </c>
-      <c r="G137" s="139" t="s">
+      <c r="G137" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="H137" s="139">
+      <c r="H137" s="133">
         <v>-0.05</v>
       </c>
-      <c r="I137" s="139">
+      <c r="I137" s="133">
         <v>141.72499999999999</v>
       </c>
       <c r="J137">
@@ -16789,31 +16778,31 @@
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="139">
+      <c r="A138" s="133">
         <v>0.39989799999999998</v>
       </c>
-      <c r="B138" s="139">
+      <c r="B138" s="133">
         <v>1</v>
       </c>
-      <c r="C138" s="139">
+      <c r="C138" s="133">
         <v>1050290</v>
       </c>
-      <c r="D138" s="139">
+      <c r="D138" s="133">
         <v>0.52117400000000003</v>
       </c>
-      <c r="E138" s="139">
+      <c r="E138" s="133">
         <v>220202</v>
       </c>
-      <c r="F138" s="139">
+      <c r="F138" s="133">
         <v>187520</v>
       </c>
-      <c r="G138" s="139" t="s">
+      <c r="G138" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="H138" s="139">
+      <c r="H138" s="133">
         <v>0</v>
       </c>
-      <c r="I138" s="139">
+      <c r="I138" s="133">
         <v>142.24600000000001</v>
       </c>
       <c r="J138">
@@ -16826,31 +16815,31 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="139">
+      <c r="A139" s="133">
         <v>0.39164900000000002</v>
       </c>
-      <c r="B139" s="139">
+      <c r="B139" s="133">
         <v>1.0512710999999999</v>
       </c>
-      <c r="C139" s="139">
+      <c r="C139" s="133">
         <v>1046410</v>
       </c>
-      <c r="D139" s="139">
+      <c r="D139" s="133">
         <v>0.51262099999999999</v>
       </c>
-      <c r="E139" s="139">
+      <c r="E139" s="133">
         <v>208031</v>
       </c>
-      <c r="F139" s="139">
+      <c r="F139" s="133">
         <v>179501</v>
       </c>
-      <c r="G139" s="139" t="s">
+      <c r="G139" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="H139" s="139">
+      <c r="H139" s="133">
         <v>0.05</v>
       </c>
-      <c r="I139" s="139">
+      <c r="I139" s="133">
         <v>142.886</v>
       </c>
       <c r="J139">
@@ -16863,31 +16852,31 @@
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="139">
+      <c r="A140" s="133">
         <v>0.39214199999999999</v>
       </c>
-      <c r="B140" s="139">
+      <c r="B140" s="133">
         <v>1.1051709000000001</v>
       </c>
-      <c r="C140" s="139">
+      <c r="C140" s="133">
         <v>1087690</v>
       </c>
-      <c r="D140" s="139">
+      <c r="D140" s="133">
         <v>0.51028899999999999</v>
       </c>
-      <c r="E140" s="139">
+      <c r="E140" s="133">
         <v>228212</v>
       </c>
-      <c r="F140" s="139">
+      <c r="F140" s="133">
         <v>193289</v>
       </c>
-      <c r="G140" s="139" t="s">
+      <c r="G140" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="H140" s="139">
+      <c r="H140" s="133">
         <v>0.1</v>
       </c>
-      <c r="I140" s="139">
+      <c r="I140" s="133">
         <v>142.05199999999999</v>
       </c>
       <c r="J140">
@@ -16900,31 +16889,31 @@
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="139">
+      <c r="A141" s="133">
         <v>0.385766</v>
       </c>
-      <c r="B141" s="139">
+      <c r="B141" s="133">
         <v>1.1618341999999999</v>
       </c>
-      <c r="C141" s="139">
+      <c r="C141" s="133">
         <v>1091320</v>
       </c>
-      <c r="D141" s="139">
+      <c r="D141" s="133">
         <v>0.49882599999999999</v>
       </c>
-      <c r="E141" s="139">
+      <c r="E141" s="133">
         <v>219906</v>
       </c>
-      <c r="F141" s="139">
+      <c r="F141" s="133">
         <v>187809</v>
       </c>
-      <c r="G141" s="139" t="s">
+      <c r="G141" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="H141" s="139">
+      <c r="H141" s="133">
         <v>0.15</v>
       </c>
-      <c r="I141" s="139">
+      <c r="I141" s="133">
         <v>142.37799999999999</v>
       </c>
       <c r="J141">
@@ -16937,31 +16926,31 @@
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142" s="139">
+      <c r="A142" s="133">
         <v>0.37941399999999997</v>
       </c>
-      <c r="B142" s="139">
+      <c r="B142" s="133">
         <v>1.2214027999999999</v>
       </c>
-      <c r="C142" s="139">
+      <c r="C142" s="133">
         <v>1096920</v>
       </c>
-      <c r="D142" s="139">
+      <c r="D142" s="133">
         <v>0.486842</v>
       </c>
-      <c r="E142" s="139">
+      <c r="E142" s="133">
         <v>212041</v>
       </c>
-      <c r="F142" s="139">
+      <c r="F142" s="133">
         <v>182550</v>
       </c>
-      <c r="G142" s="139" t="s">
+      <c r="G142" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="H142" s="139">
+      <c r="H142" s="133">
         <v>0.2</v>
       </c>
-      <c r="I142" s="139">
+      <c r="I142" s="133">
         <v>142.74</v>
       </c>
       <c r="J142">
@@ -25521,11 +25510,11 @@
         <f t="shared" si="4"/>
         <v>710870</v>
       </c>
-      <c r="Y423" s="137"/>
-      <c r="Z423" s="137" t="s">
+      <c r="Y423" s="131"/>
+      <c r="Z423" s="131" t="s">
         <v>212</v>
       </c>
-      <c r="AA423" s="137" t="s">
+      <c r="AA423" s="131" t="s">
         <v>213</v>
       </c>
     </row>
@@ -25561,13 +25550,13 @@
         <f t="shared" si="4"/>
         <v>705800</v>
       </c>
-      <c r="Y424" s="135" t="s">
+      <c r="Y424" s="129" t="s">
         <v>212</v>
       </c>
-      <c r="Z424" s="135">
+      <c r="Z424" s="129">
         <v>1</v>
       </c>
-      <c r="AA424" s="135"/>
+      <c r="AA424" s="129"/>
     </row>
     <row r="425" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A425">
@@ -25601,13 +25590,13 @@
         <f t="shared" si="4"/>
         <v>695605</v>
       </c>
-      <c r="Y425" s="136" t="s">
+      <c r="Y425" s="130" t="s">
         <v>213</v>
       </c>
-      <c r="Z425" s="136">
+      <c r="Z425" s="130">
         <v>-0.99920136894527023</v>
       </c>
-      <c r="AA425" s="136">
+      <c r="AA425" s="130">
         <v>1</v>
       </c>
     </row>
@@ -26284,19 +26273,19 @@
         <f t="shared" si="0"/>
         <v>694.62</v>
       </c>
-      <c r="L6" s="154">
+      <c r="L6" s="148">
         <v>663556</v>
       </c>
-      <c r="M6" s="155">
+      <c r="M6" s="149">
         <v>249862</v>
       </c>
-      <c r="N6" s="156">
+      <c r="N6" s="150">
         <v>0.377</v>
       </c>
-      <c r="O6" s="155">
+      <c r="O6" s="149">
         <v>144781</v>
       </c>
-      <c r="P6" s="150">
+      <c r="P6" s="144">
         <v>192152</v>
       </c>
     </row>
@@ -26314,19 +26303,19 @@
         <f t="shared" si="0"/>
         <v>703.46</v>
       </c>
-      <c r="L7" s="157">
+      <c r="L7" s="151">
         <v>686923</v>
       </c>
-      <c r="M7" s="158">
+      <c r="M7" s="152">
         <v>279187</v>
       </c>
-      <c r="N7" s="159">
+      <c r="N7" s="153">
         <v>0.40600000000000003</v>
       </c>
-      <c r="O7" s="158">
+      <c r="O7" s="152">
         <v>155540</v>
       </c>
-      <c r="P7" s="151">
+      <c r="P7" s="145">
         <v>204657</v>
       </c>
     </row>
@@ -26348,19 +26337,19 @@
         <f>C8-C5</f>
         <v>4.9099999999999966</v>
       </c>
-      <c r="L8" s="160">
+      <c r="L8" s="154">
         <v>587786</v>
       </c>
-      <c r="M8" s="161">
+      <c r="M8" s="155">
         <v>209209</v>
       </c>
-      <c r="N8" s="162">
+      <c r="N8" s="156">
         <v>0.35599999999999998</v>
       </c>
-      <c r="O8" s="161">
+      <c r="O8" s="155">
         <v>134930</v>
       </c>
-      <c r="P8" s="152">
+      <c r="P8" s="146">
         <v>178060</v>
       </c>
     </row>
@@ -26378,19 +26367,19 @@
         <f t="shared" si="0"/>
         <v>1695.36</v>
       </c>
-      <c r="L9" s="160">
+      <c r="L9" s="154">
         <v>610263</v>
       </c>
-      <c r="M9" s="161">
+      <c r="M9" s="155">
         <v>314592</v>
       </c>
-      <c r="N9" s="162">
+      <c r="N9" s="156">
         <v>0.51600000000000001</v>
       </c>
-      <c r="O9" s="161">
+      <c r="O9" s="155">
         <v>218929</v>
       </c>
-      <c r="P9" s="152">
+      <c r="P9" s="146">
         <v>187374</v>
       </c>
     </row>
@@ -26408,19 +26397,19 @@
         <f t="shared" si="0"/>
         <v>1075.28</v>
       </c>
-      <c r="L10" s="160">
+      <c r="L10" s="154">
         <v>620013</v>
       </c>
-      <c r="M10" s="161">
+      <c r="M10" s="155">
         <v>333797</v>
       </c>
-      <c r="N10" s="162">
+      <c r="N10" s="156">
         <v>0.53800000000000003</v>
       </c>
-      <c r="O10" s="161">
+      <c r="O10" s="155">
         <v>236289</v>
       </c>
-      <c r="P10" s="152">
+      <c r="P10" s="146">
         <v>188263</v>
       </c>
     </row>
@@ -26438,19 +26427,19 @@
         <f t="shared" si="0"/>
         <v>1053.04</v>
       </c>
-      <c r="L11" s="160">
+      <c r="L11" s="154">
         <v>547403</v>
       </c>
-      <c r="M11" s="161">
+      <c r="M11" s="155">
         <v>330233</v>
       </c>
-      <c r="N11" s="162">
+      <c r="N11" s="156">
         <v>0.60299999999999998</v>
       </c>
-      <c r="O11" s="161">
+      <c r="O11" s="155">
         <v>236739</v>
       </c>
-      <c r="P11" s="152">
+      <c r="P11" s="146">
         <v>181473</v>
       </c>
     </row>
@@ -26468,17 +26457,17 @@
         <f t="shared" si="0"/>
         <v>1019.48</v>
       </c>
-      <c r="L12" s="163">
+      <c r="L12" s="157">
         <v>616616</v>
       </c>
-      <c r="M12" s="164">
+      <c r="M12" s="158">
         <v>318377</v>
       </c>
-      <c r="N12" s="165">
+      <c r="N12" s="159">
         <v>0.51600000000000001</v>
       </c>
-      <c r="O12" s="165"/>
-      <c r="P12" s="153" t="s">
+      <c r="O12" s="159"/>
+      <c r="P12" s="147" t="s">
         <v>214</v>
       </c>
     </row>
@@ -26571,7 +26560,7 @@
         <f t="shared" si="0"/>
         <v>759.5</v>
       </c>
-      <c r="L18" s="166">
+      <c r="L18" s="160">
         <v>6</v>
       </c>
     </row>
@@ -26589,7 +26578,7 @@
         <f t="shared" si="0"/>
         <v>762.36</v>
       </c>
-      <c r="L19" s="167">
+      <c r="L19" s="161">
         <v>43</v>
       </c>
     </row>
@@ -26607,7 +26596,7 @@
         <f t="shared" si="0"/>
         <v>1726.28</v>
       </c>
-      <c r="L20" s="168">
+      <c r="L20" s="162">
         <v>2</v>
       </c>
     </row>
@@ -26616,7 +26605,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="168">
+      <c r="L21" s="162">
         <v>1</v>
       </c>
     </row>
@@ -26631,7 +26620,7 @@
         <f t="shared" si="0"/>
         <v>22358</v>
       </c>
-      <c r="L22" s="168">
+      <c r="L22" s="162">
         <v>1</v>
       </c>
     </row>
@@ -26646,12 +26635,12 @@
         <f t="shared" si="0"/>
         <v>37336</v>
       </c>
-      <c r="L23" s="168">
+      <c r="L23" s="162">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L24" s="169">
+      <c r="L24" s="163">
         <v>1</v>
       </c>
     </row>
@@ -26684,16 +26673,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="48"/>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="164" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="126" t="s">
+      <c r="C1" s="165"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="49"/>
@@ -27532,11 +27521,11 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B46" s="60"/>
       <c r="C46" s="58"/>
-      <c r="D46" s="127" t="s">
+      <c r="D46" s="168" t="s">
         <v>159</v>
       </c>
-      <c r="E46" s="128"/>
-      <c r="F46" s="125"/>
+      <c r="E46" s="169"/>
+      <c r="F46" s="166"/>
       <c r="G46" s="57"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -29870,10 +29859,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E66" sqref="A66:E66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30995,7 +30984,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
         <v>92</v>
       </c>
@@ -31012,7 +31001,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
         <v>92</v>
       </c>
@@ -31028,8 +31017,20 @@
       <c r="E66" s="16" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G66" s="12">
+        <f>B66-B65</f>
+        <v>27.788999999999987</v>
+      </c>
+      <c r="H66" s="12">
+        <f t="shared" ref="H66:I66" si="0">C66-C65</f>
+        <v>15.579999999999998</v>
+      </c>
+      <c r="I66" s="12">
+        <f t="shared" si="0"/>
+        <v>12.209000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
         <v>92</v>
       </c>
@@ -31046,7 +31047,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="16" t="s">
         <v>92</v>
       </c>
@@ -31063,7 +31064,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="16" t="s">
         <v>92</v>
       </c>
@@ -31080,7 +31081,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="16" t="s">
         <v>92</v>
       </c>
@@ -31097,7 +31098,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="16" t="s">
         <v>92</v>
       </c>
@@ -31114,7 +31115,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="16" t="s">
         <v>92</v>
       </c>
@@ -31131,7 +31132,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="16" t="s">
         <v>92</v>
       </c>
@@ -31148,7 +31149,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="16" t="s">
         <v>92</v>
       </c>
@@ -31165,7 +31166,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="16" t="s">
         <v>92</v>
       </c>
@@ -31182,7 +31183,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="16" t="s">
         <v>92</v>
       </c>
@@ -31203,7 +31204,7 @@
         <v>0.5493220532387898</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="16" t="s">
         <v>92</v>
       </c>
@@ -31224,7 +31225,7 @@
         <v>0.70376637039724288</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="26" t="s">
         <v>93</v>
       </c>
@@ -31241,7 +31242,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="16" t="s">
         <v>93</v>
       </c>
@@ -31258,7 +31259,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="16" t="s">
         <v>93</v>
       </c>
@@ -31275,7 +31276,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="16" t="s">
         <v>93</v>
       </c>
@@ -31292,7 +31293,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="16" t="s">
         <v>93</v>
       </c>
@@ -31313,7 +31314,7 @@
         <v>-5.4899999999999949</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="16" t="s">
         <v>93</v>
       </c>
@@ -31330,7 +31331,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="16" t="s">
         <v>93</v>
       </c>
@@ -31347,7 +31348,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="16" t="s">
         <v>93</v>
       </c>
@@ -31364,7 +31365,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="16" t="s">
         <v>93</v>
       </c>
@@ -31381,7 +31382,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="16" t="s">
         <v>93</v>
       </c>
@@ -31398,7 +31399,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="16" t="s">
         <v>93</v>
       </c>
@@ -31415,7 +31416,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="16" t="s">
         <v>93</v>
       </c>
@@ -31432,7 +31433,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="16" t="s">
         <v>93</v>
       </c>
@@ -31448,8 +31449,12 @@
       <c r="E90" s="16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I90" s="12">
+        <f>B85-B84</f>
+        <v>9.2510000000000048</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="16" t="s">
         <v>93</v>
       </c>
@@ -31466,7 +31471,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="16" t="s">
         <v>93</v>
       </c>
@@ -31483,7 +31488,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="16" t="s">
         <v>93</v>
       </c>
@@ -31500,7 +31505,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="16" t="s">
         <v>93</v>
       </c>
@@ -31517,7 +31522,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="16" t="s">
         <v>93</v>
       </c>
@@ -31534,7 +31539,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="16" t="s">
         <v>93</v>
       </c>
@@ -31922,7 +31927,7 @@
       <c r="B2" s="44">
         <v>0.9597793</v>
       </c>
-      <c r="C2" s="146">
+      <c r="C2" s="140">
         <v>0.66145500000000002</v>
       </c>
       <c r="D2" s="44">
@@ -31955,7 +31960,7 @@
         <v>249.809</v>
       </c>
       <c r="M2" s="44">
-        <f>L2/K2</f>
+        <f t="shared" ref="M2:M8" si="0">L2/K2</f>
         <v>0.37766590319825233</v>
       </c>
       <c r="N2" s="85"/>
@@ -31968,7 +31973,7 @@
       <c r="B3" s="94">
         <v>0.97399999999999998</v>
       </c>
-      <c r="C3" s="147">
+      <c r="C3" s="141">
         <v>0.69499999999999995</v>
       </c>
       <c r="D3" s="93">
@@ -32001,7 +32006,7 @@
         <v>263.18799999999999</v>
       </c>
       <c r="M3" s="44">
-        <f>L3/K3</f>
+        <f t="shared" si="0"/>
         <v>0.37882676377663743</v>
       </c>
     </row>
@@ -32012,7 +32017,7 @@
       <c r="B4" s="44">
         <v>1.0965965</v>
       </c>
-      <c r="C4" s="146">
+      <c r="C4" s="140">
         <v>0.58604999999999996</v>
       </c>
       <c r="D4" s="44">
@@ -32045,7 +32050,7 @@
         <v>205.91399999999999</v>
       </c>
       <c r="M4" s="44">
-        <f>L4/K4</f>
+        <f t="shared" si="0"/>
         <v>0.35135909905298185</v>
       </c>
     </row>
@@ -32056,7 +32061,7 @@
       <c r="B5" s="44">
         <v>0.82222189999999995</v>
       </c>
-      <c r="C5" s="146">
+      <c r="C5" s="140">
         <v>0.60543499999999995</v>
       </c>
       <c r="D5" s="44">
@@ -32089,7 +32094,7 @@
         <v>314.14550000000003</v>
       </c>
       <c r="M5" s="44">
-        <f>L5/K5</f>
+        <f t="shared" si="0"/>
         <v>0.51887568442524801</v>
       </c>
     </row>
@@ -32100,7 +32105,7 @@
       <c r="B6" s="44">
         <v>0.82158819999999999</v>
       </c>
-      <c r="C6" s="146">
+      <c r="C6" s="140">
         <v>0.60156500000000002</v>
       </c>
       <c r="D6" s="44">
@@ -32133,21 +32138,21 @@
         <v>343.43049999999999</v>
       </c>
       <c r="M6" s="44">
-        <f>L6/K6</f>
+        <f t="shared" si="0"/>
         <v>0.55086817390746434</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="133">
+      <c r="A7" s="127">
         <v>0.42937799999999998</v>
       </c>
-      <c r="B7" s="133">
+      <c r="B7" s="127">
         <v>0.76508069999999995</v>
       </c>
-      <c r="C7" s="148">
+      <c r="C7" s="142">
         <v>0.62343499999999996</v>
       </c>
-      <c r="D7" s="133">
+      <c r="D7" s="127">
         <v>0.46538400000000002</v>
       </c>
       <c r="E7" s="4">
@@ -32159,10 +32164,10 @@
       <c r="G7" s="4">
         <v>218</v>
       </c>
-      <c r="H7" s="133">
+      <c r="H7" s="127">
         <v>6.72185E-2</v>
       </c>
-      <c r="I7" s="133">
+      <c r="I7" s="127">
         <v>0.77152699999999996</v>
       </c>
       <c r="J7" s="4" t="s">
@@ -32177,7 +32182,7 @@
         <v>331.84449999999998</v>
       </c>
       <c r="M7" s="44">
-        <f>L7/K7</f>
+        <f t="shared" si="0"/>
         <v>0.61154274973048184</v>
       </c>
     </row>
@@ -32188,7 +32193,7 @@
       <c r="B8" s="44">
         <v>0.83082670000000003</v>
       </c>
-      <c r="C8" s="146">
+      <c r="C8" s="140">
         <v>0.58342000000000005</v>
       </c>
       <c r="D8" s="44">
@@ -32221,7 +32226,7 @@
         <v>313.05149999999998</v>
       </c>
       <c r="M8" s="44">
-        <f>L8/K8</f>
+        <f t="shared" si="0"/>
         <v>0.51205335601481927</v>
       </c>
     </row>
@@ -32232,7 +32237,7 @@
       <c r="B9" s="44">
         <v>0.74823139999999999</v>
       </c>
-      <c r="C9" s="146">
+      <c r="C9" s="140">
         <v>0.58307500000000001</v>
       </c>
       <c r="D9" s="44">
@@ -32264,7 +32269,7 @@
       <c r="B10" s="44">
         <v>0.79242690000000005</v>
       </c>
-      <c r="C10" s="146">
+      <c r="C10" s="140">
         <v>0.54263499999999998</v>
       </c>
       <c r="D10" s="44">
@@ -32296,7 +32301,7 @@
       <c r="B11" s="44">
         <v>0.808203</v>
       </c>
-      <c r="C11" s="146">
+      <c r="C11" s="140">
         <v>0.61136500000000005</v>
       </c>
       <c r="D11" s="44">
@@ -32328,7 +32333,7 @@
       <c r="B12" s="45">
         <v>1.0969423</v>
       </c>
-      <c r="C12" s="149">
+      <c r="C12" s="143">
         <v>0.57974000000000003</v>
       </c>
       <c r="D12" s="45">
@@ -32360,7 +32365,7 @@
       <c r="B13" s="44">
         <v>0.95492449999999995</v>
       </c>
-      <c r="C13" s="146">
+      <c r="C13" s="140">
         <v>0.61028000000000004</v>
       </c>
       <c r="D13" s="44">
@@ -32392,7 +32397,7 @@
       <c r="B14" s="44">
         <v>0.9821164</v>
       </c>
-      <c r="C14" s="146">
+      <c r="C14" s="140">
         <v>0.61233499999999996</v>
       </c>
       <c r="D14" s="44">
@@ -32428,7 +32433,7 @@
       <c r="B15" s="44">
         <v>0.77304349999999999</v>
       </c>
-      <c r="C15" s="146">
+      <c r="C15" s="140">
         <v>0.63609000000000004</v>
       </c>
       <c r="D15" s="44">
@@ -32460,7 +32465,7 @@
       <c r="B16" s="44">
         <v>0.81259459999999994</v>
       </c>
-      <c r="C16" s="146">
+      <c r="C16" s="140">
         <v>0.61334500000000003</v>
       </c>
       <c r="D16" s="44">
@@ -32492,7 +32497,7 @@
       <c r="B17" s="44">
         <v>0.775142</v>
       </c>
-      <c r="C17" s="146">
+      <c r="C17" s="140">
         <v>0.566415</v>
       </c>
       <c r="D17" s="44">
@@ -32524,7 +32529,7 @@
       <c r="B18" s="44">
         <v>0.82864450000000001</v>
       </c>
-      <c r="C18" s="146">
+      <c r="C18" s="140">
         <v>0.53734000000000004</v>
       </c>
       <c r="D18" s="44">
@@ -32556,7 +32561,7 @@
       <c r="B19" s="44">
         <v>0.8572592</v>
       </c>
-      <c r="C19" s="146">
+      <c r="C19" s="140">
         <v>0.56110499999999996</v>
       </c>
       <c r="D19" s="44">
@@ -32588,7 +32593,7 @@
       <c r="B20" s="45">
         <v>0.82686729999999997</v>
       </c>
-      <c r="C20" s="149">
+      <c r="C20" s="143">
         <v>0.67340999999999995</v>
       </c>
       <c r="D20" s="45">
@@ -32620,7 +32625,7 @@
       <c r="B21" s="44">
         <v>0.73687939999999996</v>
       </c>
-      <c r="C21" s="146">
+      <c r="C21" s="140">
         <v>0.59082500000000004</v>
       </c>
       <c r="D21" s="44">
@@ -32652,7 +32657,7 @@
       <c r="B22" s="44">
         <v>0.7777579</v>
       </c>
-      <c r="C22" s="146">
+      <c r="C22" s="140">
         <v>0.624305</v>
       </c>
       <c r="D22" s="44">
@@ -32758,7 +32763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="E70" sqref="E70:E79"/>
     </sheetView>
   </sheetViews>
@@ -33033,28 +33038,28 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="141" t="s">
+      <c r="A11" s="135" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="142">
+      <c r="B11" s="136">
         <v>110.91800000000001</v>
       </c>
-      <c r="C11" s="143">
+      <c r="C11" s="137">
         <v>2.2772000000000001</v>
       </c>
-      <c r="D11" s="141" t="s">
+      <c r="D11" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="144" t="s">
+      <c r="E11" s="138" t="s">
         <v>188</v>
       </c>
-      <c r="F11" s="142">
+      <c r="F11" s="136">
         <v>1.53498</v>
       </c>
-      <c r="G11" s="143">
+      <c r="G11" s="137">
         <v>7.05205E-2</v>
       </c>
-      <c r="H11" s="141" t="s">
+      <c r="H11" s="135" t="s">
         <v>72</v>
       </c>
     </row>
@@ -33579,28 +33584,28 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="141" t="s">
+      <c r="A32" s="135" t="s">
         <v>207</v>
       </c>
-      <c r="B32" s="142">
+      <c r="B32" s="136">
         <v>14.6808</v>
       </c>
-      <c r="C32" s="143">
+      <c r="C32" s="137">
         <v>0.19664499999999999</v>
       </c>
-      <c r="D32" s="141" t="s">
+      <c r="D32" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="144" t="s">
+      <c r="E32" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="F32" s="142">
+      <c r="F32" s="136">
         <v>0.13084599999999999</v>
       </c>
-      <c r="G32" s="145">
+      <c r="G32" s="139">
         <v>8.6467799999999997E-3</v>
       </c>
-      <c r="H32" s="141" t="s">
+      <c r="H32" s="135" t="s">
         <v>72</v>
       </c>
     </row>
@@ -34032,7 +34037,7 @@
         <v>66</v>
       </c>
       <c r="J52">
-        <f t="shared" ref="J52:J53" si="0">EXP(B52)</f>
+        <f t="shared" ref="J52" si="0">EXP(B52)</f>
         <v>806774.92096161551</v>
       </c>
     </row>
@@ -34170,7 +34175,7 @@
         <v>71</v>
       </c>
       <c r="J57">
-        <f t="shared" ref="J55:J58" si="1">EXP(B57)</f>
+        <f t="shared" ref="J57:J58" si="1">EXP(B57)</f>
         <v>880636.30585768004</v>
       </c>
       <c r="L57">
@@ -34179,28 +34184,28 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="141" t="s">
+      <c r="A58" s="135" t="s">
         <v>209</v>
       </c>
-      <c r="B58" s="142">
+      <c r="B58" s="136">
         <v>13.6686</v>
       </c>
-      <c r="C58" s="145">
+      <c r="C58" s="139">
         <v>0.17493500000000001</v>
       </c>
-      <c r="D58" s="141" t="s">
+      <c r="D58" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="144" t="s">
+      <c r="E58" s="138" t="s">
         <v>200</v>
       </c>
-      <c r="F58" s="142">
+      <c r="F58" s="136">
         <v>0.42372500000000002</v>
       </c>
-      <c r="G58" s="145">
+      <c r="G58" s="139">
         <v>2.09055E-2</v>
       </c>
-      <c r="H58" s="141" t="s">
+      <c r="H58" s="135" t="s">
         <v>72</v>
       </c>
       <c r="J58">
@@ -35064,7 +35069,7 @@
         <f>G3/G24</f>
         <v>0.37882475710687297</v>
       </c>
-      <c r="O3" s="134">
+      <c r="O3" s="128">
         <f>(G3-G2)/G2</f>
         <v>5.3558919014126793E-2</v>
       </c>
@@ -35436,7 +35441,7 @@
       <c r="J13" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="140">
+      <c r="L13" s="134">
         <f>(G10-G7)/G7</f>
         <v>-3.3736083428816017E-2</v>
       </c>
@@ -35822,7 +35827,7 @@
         <f t="shared" si="3"/>
         <v>1.8117740194314502E-2</v>
       </c>
-      <c r="N24" s="134">
+      <c r="N24" s="128">
         <f>(B23-B24)/B23</f>
         <v>2.4734957911178072E-2</v>
       </c>
@@ -35864,7 +35869,7 @@
         <f t="shared" si="3"/>
         <v>4.6195973039843019E-2</v>
       </c>
-      <c r="N25" s="134">
+      <c r="N25" s="128">
         <f>(G24-G23)/G23</f>
         <v>5.0336001693236876E-2</v>
       </c>
@@ -36567,7 +36572,7 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B54" s="91"/>
       <c r="D54" s="86">
-        <f t="shared" ref="D52:D62" si="4">C23/B23</f>
+        <f t="shared" ref="D54:D62" si="4">C23/B23</f>
         <v>0.10134421606977484</v>
       </c>
       <c r="E54" t="s">
